--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10047" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8735A379-F0C3-4914-8EBC-5753A82A9AF7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -6189,8 +6189,8 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6374,8 +6374,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10047" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8735A379-F0C3-4914-8EBC-5753A82A9AF7}"/>
+  <xr:revisionPtr revIDLastSave="10094" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D752111B-E6E6-4CDC-96CE-9F223BCDA4EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="310">
   <si>
     <t>ROUND</t>
   </si>
@@ -958,6 +958,18 @@
   </si>
   <si>
     <t>5-7 6-4 7-5</t>
+  </si>
+  <si>
+    <t>Thanasi Kokkinakis (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-2 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-0 7-6(5)</t>
+  </si>
+  <si>
+    <t>Taylor Fritz (USA)</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1215,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1763,7 +1775,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.875</c:v>
+                  <c:v>0.9285714285714286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5057,8 +5069,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E89" activeCellId="11" sqref="E4 E18 E27 E45 E50 E56 E61 E63 E67 E77 E85 E89"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6187,20 +6199,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6359,6 +6371,166 @@
       </c>
       <c r="F11" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>202</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>248</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>309</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6375,7 +6547,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6497,20 +6669,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6519,15 +6691,15 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -6535,7 +6707,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.6796875</v>
+        <v>0.69402985074626866</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6544,15 +6716,15 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>25.6</v>
+        <v>26.8</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -6560,7 +6732,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.6796875</v>
+        <v>0.69402985074626866</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10094" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D752111B-E6E6-4CDC-96CE-9F223BCDA4EA}"/>
+  <xr:revisionPtr revIDLastSave="10099" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C078EC-6C1B-4E9C-8DEC-5AE9E4DBDF7C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="311">
   <si>
     <t>ROUND</t>
   </si>
@@ -970,6 +970,9 @@
   </si>
   <si>
     <t>Taylor Fritz (USA)</t>
+  </si>
+  <si>
+    <t>67(4) 6-4 6-2</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1218,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1293,7 +1296,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1775,7 +1778,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9285714285714286</c:v>
+                  <c:v>0.88888888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5069,7 +5072,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
@@ -6202,7 +6205,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E20" activeCellId="3" sqref="E2:E5 E7:E10 E13:E18 E20:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6532,6 +6535,12 @@
       <c r="D24" t="s">
         <v>147</v>
       </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6546,8 +6555,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6669,20 +6678,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.9285714285714286</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6691,7 +6700,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -6699,15 +6708,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.69402985074626866</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6716,7 +6725,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>10.6</v>
+        <v>10.8</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -6724,15 +6733,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>26.8</v>
+        <v>27.6</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.1999999999999993</v>
+        <v>8.4</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.69402985074626866</v>
+        <v>0.69565217391304357</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10099" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56C078EC-6C1B-4E9C-8DEC-5AE9E4DBDF7C}"/>
+  <xr:revisionPtr revIDLastSave="10114" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3ADDF10-8D63-483B-A737-A386F8A4B38F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="315">
   <si>
     <t>ROUND</t>
   </si>
@@ -973,6 +973,18 @@
   </si>
   <si>
     <t>67(4) 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Nuno Borges (PORTUGAL)</t>
+  </si>
+  <si>
+    <t>Alejandro Davidovich Fokina (SPAIN)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>Dan Evans (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1230,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,7 +1790,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88888888888888884</c:v>
+                  <c:v>0.91304347826086951</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3156,10 +3168,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5072,8 +5080,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6202,10 +6210,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="3" sqref="E2:E5 E7:E10 E13:E18 E20:E23"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" activeCellId="4" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6213,7 +6221,7 @@
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -6540,6 +6548,82 @@
       </c>
       <c r="F24" t="s">
         <v>310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>312</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6678,20 +6762,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.88888888888888884</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6700,15 +6784,15 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -6716,7 +6800,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.69565217391304346</v>
+        <v>0.70629370629370625</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6725,15 +6809,15 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>27.6</v>
+        <v>28.6</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -6741,7 +6825,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.69565217391304357</v>
+        <v>0.70629370629370636</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10114" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3ADDF10-8D63-483B-A737-A386F8A4B38F}"/>
+  <xr:revisionPtr revIDLastSave="10115" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFDAD8-0C68-443C-8BA5-BFD58AE1F4A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3168,6 +3168,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6212,8 +6216,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="4" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6609,7 +6613,7 @@
         <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -6639,7 +6643,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10115" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFDAD8-0C68-443C-8BA5-BFD58AE1F4A1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3094,7 +3094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="89" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3139,7 +3139,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8570360" cy="5830584"/>
+    <xdr:ext cx="8572500" cy="5827568"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3625,7 +3625,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4161,7 +4161,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E74" activeCellId="18" sqref="E4 E7 E9 E12 E14 E16 E21 E23 E27 E30 E37 E40 E48 E52 E57 E63 E65 E70 E74"/>
+      <selection activeCell="A55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5084,8 +5084,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:F33"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6216,8 +6216,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="10115" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFDAD8-0C68-443C-8BA5-BFD58AE1F4A1}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3094,7 +3094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="51" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -6216,8 +6216,8 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10115" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DCFDAD8-0C68-443C-8BA5-BFD58AE1F4A1}"/>
+  <xr:revisionPtr revIDLastSave="10116" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1C22F7-D516-42A7-B192-9D783E5DA9DE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -690,9 +690,6 @@
     <t>Marin Čilić (CROATIA)</t>
   </si>
   <si>
-    <t>MUTUA MADRID OPEN</t>
-  </si>
-  <si>
     <t>Adrian Mannarino (FRANCE)</t>
   </si>
   <si>
@@ -985,6 +982,9 @@
   </si>
   <si>
     <t>Dan Evans (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>MADRID OPEN</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3094,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3624,7 +3624,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4161,7 +4161,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:XFD1048576"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>34</v>
@@ -4307,7 +4307,7 @@
         <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>11</v>
@@ -4321,7 +4321,7 @@
         <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>12</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -4511,7 +4511,7 @@
         <v>141</v>
       </c>
       <c r="D29" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -4525,7 +4525,7 @@
         <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>12</v>
@@ -4545,7 +4545,7 @@
         <v>145</v>
       </c>
       <c r="D32" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>11</v>
@@ -4559,7 +4559,7 @@
         <v>157</v>
       </c>
       <c r="D33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>11</v>
@@ -4570,10 +4570,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>11</v>
@@ -4601,7 +4601,7 @@
         <v>141</v>
       </c>
       <c r="D36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>11</v>
@@ -4615,7 +4615,7 @@
         <v>142</v>
       </c>
       <c r="D37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>12</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -4635,7 +4635,7 @@
         <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>11</v>
@@ -4649,7 +4649,7 @@
         <v>141</v>
       </c>
       <c r="D40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>12</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
@@ -4669,7 +4669,7 @@
         <v>142</v>
       </c>
       <c r="D42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>11</v>
@@ -4683,7 +4683,7 @@
         <v>144</v>
       </c>
       <c r="D43" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>11</v>
@@ -4697,7 +4697,7 @@
         <v>162</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>11</v>
@@ -4725,7 +4725,7 @@
         <v>164</v>
       </c>
       <c r="D46" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>11</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
         <v>34</v>
@@ -4745,7 +4745,7 @@
         <v>142</v>
       </c>
       <c r="D48" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>12</v>
@@ -4756,7 +4756,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
@@ -4779,7 +4779,7 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>11</v>
@@ -4793,7 +4793,7 @@
         <v>141</v>
       </c>
       <c r="D52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>12</v>
@@ -4804,7 +4804,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
         <v>14</v>
@@ -4813,7 +4813,7 @@
         <v>142</v>
       </c>
       <c r="D54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>11</v>
@@ -4827,7 +4827,7 @@
         <v>144</v>
       </c>
       <c r="D55" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>11</v>
@@ -4841,7 +4841,7 @@
         <v>162</v>
       </c>
       <c r="D56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>11</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
@@ -4875,7 +4875,7 @@
         <v>198</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>11</v>
@@ -4889,7 +4889,7 @@
         <v>141</v>
       </c>
       <c r="D60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>11</v>
@@ -4903,7 +4903,7 @@
         <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>11</v>
@@ -4917,7 +4917,7 @@
         <v>144</v>
       </c>
       <c r="D62" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>11</v>
@@ -4931,18 +4931,18 @@
         <v>162</v>
       </c>
       <c r="D63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -4951,7 +4951,7 @@
         <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>12</v>
@@ -4962,7 +4962,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B67" t="s">
         <v>14</v>
@@ -4971,7 +4971,7 @@
         <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>11</v>
@@ -4985,7 +4985,7 @@
         <v>144</v>
       </c>
       <c r="D68" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="4" t="s">
         <v>11</v>
@@ -4999,7 +4999,7 @@
         <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B72" t="s">
         <v>14</v>
@@ -5033,7 +5033,7 @@
         <v>141</v>
       </c>
       <c r="D72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>11</v>
@@ -5061,7 +5061,7 @@
         <v>144</v>
       </c>
       <c r="D74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>12</v>
@@ -5084,8 +5084,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5129,7 +5129,7 @@
         <v>198</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -5143,7 +5143,7 @@
         <v>141</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -5157,7 +5157,7 @@
         <v>142</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>12</v>
@@ -5191,7 +5191,7 @@
         <v>144</v>
       </c>
       <c r="D7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -5205,7 +5205,7 @@
         <v>162</v>
       </c>
       <c r="D8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
@@ -5219,7 +5219,7 @@
         <v>163</v>
       </c>
       <c r="D9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
@@ -5233,7 +5233,7 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>11</v>
@@ -5244,13 +5244,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>11</v>
@@ -5261,7 +5261,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -5270,7 +5270,7 @@
         <v>141</v>
       </c>
       <c r="D14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>11</v>
@@ -5284,7 +5284,7 @@
         <v>142</v>
       </c>
       <c r="D15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
@@ -5298,7 +5298,7 @@
         <v>144</v>
       </c>
       <c r="D16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -5312,7 +5312,7 @@
         <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>11</v>
@@ -5326,7 +5326,7 @@
         <v>163</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>12</v>
@@ -5346,7 +5346,7 @@
         <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>11</v>
@@ -5374,7 +5374,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
@@ -5388,7 +5388,7 @@
         <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>11</v>
@@ -5402,7 +5402,7 @@
         <v>163</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>11</v>
@@ -5427,7 +5427,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
         <v>34</v>
@@ -5436,7 +5436,7 @@
         <v>142</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>12</v>
@@ -5456,7 +5456,7 @@
         <v>142</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -5484,7 +5484,7 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>11</v>
@@ -5498,7 +5498,7 @@
         <v>163</v>
       </c>
       <c r="D32" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>11</v>
@@ -5512,7 +5512,7 @@
         <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>11</v>
@@ -5523,7 +5523,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -5532,7 +5532,7 @@
         <v>142</v>
       </c>
       <c r="D35" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>11</v>
@@ -5546,7 +5546,7 @@
         <v>144</v>
       </c>
       <c r="D36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>11</v>
@@ -5560,7 +5560,7 @@
         <v>162</v>
       </c>
       <c r="D37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>11</v>
@@ -5574,7 +5574,7 @@
         <v>163</v>
       </c>
       <c r="D38" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>11</v>
@@ -5608,7 +5608,7 @@
         <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>11</v>
@@ -5636,7 +5636,7 @@
         <v>142</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>11</v>
@@ -5650,7 +5650,7 @@
         <v>144</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>11</v>
@@ -5675,7 +5675,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -5684,7 +5684,7 @@
         <v>198</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>11</v>
@@ -5712,7 +5712,7 @@
         <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>11</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B52" t="s">
         <v>34</v>
@@ -5746,7 +5746,7 @@
         <v>142</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>11</v>
@@ -5760,7 +5760,7 @@
         <v>144</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>11</v>
@@ -5774,7 +5774,7 @@
         <v>162</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>11</v>
@@ -5788,7 +5788,7 @@
         <v>163</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E55" s="4" t="s">
         <v>11</v>
@@ -5813,7 +5813,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
         <v>34</v>
@@ -5822,7 +5822,7 @@
         <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E58" s="4" t="s">
         <v>11</v>
@@ -5850,7 +5850,7 @@
         <v>163</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>11</v>
@@ -5875,7 +5875,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s">
         <v>14</v>
@@ -5884,7 +5884,7 @@
         <v>142</v>
       </c>
       <c r="D63" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>12</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -5904,7 +5904,7 @@
         <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E65" s="4" t="s">
         <v>11</v>
@@ -5932,7 +5932,7 @@
         <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>12</v>
@@ -5943,7 +5943,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B69" t="s">
         <v>14</v>
@@ -5952,13 +5952,13 @@
         <v>198</v>
       </c>
       <c r="D69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5980,7 +5980,7 @@
         <v>142</v>
       </c>
       <c r="D71" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>11</v>
@@ -6047,13 +6047,13 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B77" t="s">
         <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E77" s="5" t="s">
         <v>12</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>11</v>
@@ -6075,7 +6075,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s">
         <v>14</v>
@@ -6095,7 +6095,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B82" t="s">
         <v>14</v>
@@ -6104,7 +6104,7 @@
         <v>142</v>
       </c>
       <c r="D82" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>11</v>
@@ -6132,7 +6132,7 @@
         <v>162</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>11</v>
@@ -6146,7 +6146,7 @@
         <v>163</v>
       </c>
       <c r="D85" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E85" s="5" t="s">
         <v>12</v>
@@ -6157,7 +6157,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B87" t="s">
         <v>14</v>
@@ -6166,7 +6166,7 @@
         <v>142</v>
       </c>
       <c r="D87" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>11</v>
@@ -6180,7 +6180,7 @@
         <v>144</v>
       </c>
       <c r="D88" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E88" s="4" t="s">
         <v>11</v>
@@ -6194,13 +6194,13 @@
         <v>162</v>
       </c>
       <c r="D89" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6216,7 +6216,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -6252,7 +6252,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -6261,7 +6261,7 @@
         <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>11</v>
@@ -6275,7 +6275,7 @@
         <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>11</v>
@@ -6303,7 +6303,7 @@
         <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>11</v>
@@ -6323,7 +6323,7 @@
         <v>142</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>11</v>
@@ -6337,13 +6337,13 @@
         <v>144</v>
       </c>
       <c r="D8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -6351,13 +6351,13 @@
         <v>162</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -6365,13 +6365,13 @@
         <v>163</v>
       </c>
       <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>303</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -6379,18 +6379,18 @@
         <v>164</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -6399,7 +6399,7 @@
         <v>141</v>
       </c>
       <c r="D13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>11</v>
@@ -6427,13 +6427,13 @@
         <v>144</v>
       </c>
       <c r="D15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -6441,7 +6441,7 @@
         <v>162</v>
       </c>
       <c r="D16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>11</v>
@@ -6469,7 +6469,7 @@
         <v>164</v>
       </c>
       <c r="D18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>11</v>
@@ -6503,13 +6503,13 @@
         <v>142</v>
       </c>
       <c r="D21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>11</v>
@@ -6531,7 +6531,7 @@
         <v>162</v>
       </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>11</v>
@@ -6551,7 +6551,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6565,7 +6565,7 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
@@ -6579,7 +6579,7 @@
         <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>11</v>
@@ -6593,13 +6593,13 @@
         <v>162</v>
       </c>
       <c r="D28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
         <v>312</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6607,7 +6607,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -6621,7 +6621,7 @@
         <v>164</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>11</v>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10116" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F1C22F7-D516-42A7-B192-9D783E5DA9DE}"/>
+  <xr:revisionPtr revIDLastSave="10143" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7CBCAE-159D-452F-BD25-AA65FA579C36}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="318">
   <si>
     <t>ROUND</t>
   </si>
@@ -985,6 +985,15 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-2</t>
+  </si>
+  <si>
+    <t>Borna Ćorić (CROATIA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-3</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1239,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1790,7 +1799,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91304347826086951</c:v>
+                  <c:v>0.93103448275862066</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3094,7 +3103,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3166,10 +3175,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5084,8 +5089,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6214,10 +6219,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" activeCellId="5" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6630,6 +6635,96 @@
         <v>25</v>
       </c>
     </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>314</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>206</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>292</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>316</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -6643,8 +6738,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6766,20 +6861,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.91304347826086951</v>
+        <v>0.93103448275862066</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6788,15 +6883,15 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -6804,7 +6899,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.70629370629370625</v>
+        <v>0.71812080536912748</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6813,15 +6908,15 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>28.6</v>
+        <v>29.8</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -6829,7 +6924,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.70629370629370636</v>
+        <v>0.71812080536912748</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10143" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE7CBCAE-159D-452F-BD25-AA65FA579C36}"/>
+  <xr:revisionPtr revIDLastSave="10155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E9EF04-9439-4D33-B3F3-BB87FFA7CBA4}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5760" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="321">
   <si>
     <t>ROUND</t>
   </si>
@@ -969,9 +969,6 @@
     <t>Taylor Fritz (USA)</t>
   </si>
   <si>
-    <t>67(4) 6-4 6-2</t>
-  </si>
-  <si>
     <t>Nuno Borges (PORTUGAL)</t>
   </si>
   <si>
@@ -994,6 +991,18 @@
   </si>
   <si>
     <t>6-4 3-6 6-3</t>
+  </si>
+  <si>
+    <t>ITALIAN OPEN</t>
+  </si>
+  <si>
+    <t>Fábián Marozsán (HUNGARY)</t>
+  </si>
+  <si>
+    <t>6-4 6-1</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-4 6-2</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1248,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>29</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1317,7 +1326,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1799,7 +1808,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.93103448275862066</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3177,6 +3186,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4507,7 +4520,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s">
         <v>34</v>
@@ -5528,7 +5541,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B35" t="s">
         <v>34</v>
@@ -6219,10 +6232,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" activeCellId="5" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" activeCellId="2" sqref="E11 E24 E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6556,7 +6569,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -6570,7 +6583,7 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>11</v>
@@ -6598,13 +6611,13 @@
         <v>162</v>
       </c>
       <c r="D28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
         <v>311</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -6612,7 +6625,7 @@
         <v>163</v>
       </c>
       <c r="D29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>11</v>
@@ -6637,7 +6650,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B32" t="s">
         <v>34</v>
@@ -6652,10 +6665,10 @@
         <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6669,7 +6682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6683,7 +6696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6697,12 +6710,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>11</v>
@@ -6711,7 +6724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6722,7 +6735,41 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>317</v>
+      </c>
+      <c r="B39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>142</v>
+      </c>
+      <c r="D40" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6739,7 +6786,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6861,20 +6908,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.93103448275862066</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6883,7 +6930,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -6891,15 +6938,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.71812080536912748</v>
+        <v>0.71333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6908,7 +6955,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -6916,15 +6963,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.71812080536912748</v>
+        <v>0.71333333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E9EF04-9439-4D33-B3F3-BB87FFA7CBA4}"/>
+  <xr:revisionPtr revIDLastSave="10179" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3FBF3F3-6DD2-4720-88E1-9BFAAF1C8652}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="329">
   <si>
     <t>ROUND</t>
   </si>
@@ -1003,6 +1003,30 @@
   </si>
   <si>
     <t>6-7(4) 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-0 6-2 7-5</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-2 6-1 7-6(5)</t>
+  </si>
+  <si>
+    <t>Taro Daniel (JAPAN)</t>
+  </si>
+  <si>
+    <t>Denis Shapovalov (CANADA)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 6-1 6-1</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1272,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,7 +1350,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,7 +1832,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.88571428571428568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,10 +3210,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6232,17 +6252,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="2" sqref="E11 E24 E40"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="7" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -6770,6 +6790,96 @@
       </c>
       <c r="F40" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6908,20 +7018,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.88571428571428568</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6930,7 +7040,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -6938,15 +7048,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.71333333333333337</v>
+        <v>0.71612903225806457</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6955,7 +7065,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -6963,15 +7073,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.71333333333333326</v>
+        <v>0.71612903225806446</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10179" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3FBF3F3-6DD2-4720-88E1-9BFAAF1C8652}"/>
+  <xr:revisionPtr revIDLastSave="10200" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D30DF2-F840-4280-AC06-FCE343DC3991}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
   <si>
     <t>ROUND</t>
   </si>
@@ -1027,6 +1027,15 @@
   </si>
   <si>
     <t>6-3 5-7 6-1 6-1</t>
+  </si>
+  <si>
+    <t>QUEEN'S CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>4-6 7-5 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1281,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1832,7 +1841,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.88571428571428568</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6252,15 +6261,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="7" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" activeCellId="3" sqref="E11 E24 E40 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
@@ -6880,6 +6889,82 @@
       </c>
       <c r="F47" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6896,7 +6981,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7018,20 +7103,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.88571428571428568</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7040,15 +7125,15 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -7056,7 +7141,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.71612903225806457</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7065,15 +7150,15 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -7081,7 +7166,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.71612903225806446</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10155" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86E9EF04-9439-4D33-B3F3-BB87FFA7CBA4}"/>
+  <xr:revisionPtr revIDLastSave="10200" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D30DF2-F840-4280-AC06-FCE343DC3991}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
   <si>
     <t>ROUND</t>
   </si>
@@ -1003,6 +1003,39 @@
   </si>
   <si>
     <t>6-7(4) 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-0 6-2 7-5</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-2 6-1 7-6(5)</t>
+  </si>
+  <si>
+    <t>Taro Daniel (JAPAN)</t>
+  </si>
+  <si>
+    <t>Denis Shapovalov (CANADA)</t>
+  </si>
+  <si>
+    <t>6-3 5-7 6-1 6-1</t>
+  </si>
+  <si>
+    <t>QUEEN'S CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>Jiří Lehečka (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>4-6 7-5 7-6(3)</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1281,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,7 +1359,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3186,10 +3219,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6232,17 +6261,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E40" activeCellId="2" sqref="E11 E24 E40"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E47" activeCellId="3" sqref="E11 E24 E40 E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -6770,6 +6799,172 @@
       </c>
       <c r="F40" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>326</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>327</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>236</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>273</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" t="s">
+        <v>330</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>292</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" t="s">
+        <v>271</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6786,7 +6981,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6908,16 +7103,16 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
         <v>4</v>
-      </c>
-      <c r="D6">
-        <v>30</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
@@ -6930,23 +7125,23 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.71333333333333337</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -6955,23 +7150,23 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.6</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.71333333333333326</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10200" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D30DF2-F840-4280-AC06-FCE343DC3991}"/>
+  <xr:revisionPtr revIDLastSave="10225" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17F4881-6B74-48BE-97CF-68A04268C2D8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="339">
   <si>
     <t>ROUND</t>
   </si>
@@ -1036,6 +1036,27 @@
   </si>
   <si>
     <t>4-6 7-5 7-6(3)</t>
+  </si>
+  <si>
+    <t>Jérémy Chardy (FRANCE)</t>
+  </si>
+  <si>
+    <t>Alexandre Müller (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-3 6-7(6) 6-3 7-5</t>
+  </si>
+  <si>
+    <t>6-4 7-6(2) 6-3</t>
+  </si>
+  <si>
+    <t>3-6 6-3 6-3 6-3</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-4 6-4</t>
+  </si>
+  <si>
+    <t>1-6 7-6(6) 6-1 3-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1302,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1841,7 +1862,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.91489361702127658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3219,6 +3240,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5131,8 +5156,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69:C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6261,10 +6286,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E47" activeCellId="3" sqref="E11 E24 E40 E47"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" activeCellId="9" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6274,7 +6299,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6965,6 +6990,110 @@
       </c>
       <c r="F53" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>224</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" t="s">
+        <v>333</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>302</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>290</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>226</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -7103,20 +7232,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.9</v>
+        <v>0.91489361702127658</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7125,15 +7254,15 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
@@ -7141,7 +7270,7 @@
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.73652694610778446</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7150,15 +7279,15 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>32</v>
+        <v>33.4</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
@@ -7166,7 +7295,7 @@
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.72499999999999998</v>
+        <v>0.73652694610778435</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10225" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17F4881-6B74-48BE-97CF-68A04268C2D8}"/>
+  <xr:revisionPtr revIDLastSave="10238" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E846F30-1959-40CC-A0FE-12CA28E382F7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="342">
   <si>
     <t>ROUND</t>
   </si>
@@ -1057,6 +1057,15 @@
   </si>
   <si>
     <t>1-6 7-6(6) 6-1 3-6 6-4</t>
+  </si>
+  <si>
+    <t>Ben Shelton (USA)</t>
+  </si>
+  <si>
+    <t>3-6 7-6(2) 7-6(3)</t>
+  </si>
+  <si>
+    <t>3-6 6-4 6-3</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1311,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,7 +1389,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1862,7 +1871,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91489361702127658</c:v>
+                  <c:v>0.89795918367346939</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3240,10 +3249,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6286,10 +6291,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E55" activeCellId="9" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E63" activeCellId="10" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7096,6 +7101,54 @@
         <v>338</v>
       </c>
     </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>282</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+      <c r="C63" t="s">
+        <v>142</v>
+      </c>
+      <c r="D63" t="s">
+        <v>339</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>144</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>162</v>
+      </c>
+      <c r="D65" t="s">
+        <v>283</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7110,7 +7163,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7232,20 +7285,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.91489361702127658</v>
+        <v>0.89795918367346939</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7254,7 +7307,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7262,15 +7315,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.73652694610778446</v>
+        <v>0.73372781065088755</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7279,7 +7332,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7287,15 +7340,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>33.4</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>8.8000000000000007</v>
+        <v>9</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.73652694610778435</v>
+        <v>0.73372781065088755</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10238" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E846F30-1959-40CC-A0FE-12CA28E382F7}"/>
+  <xr:revisionPtr revIDLastSave="10258" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FD1778-5BCF-43F2-9096-DC6359782E6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="349">
   <si>
     <t>ROUND</t>
   </si>
@@ -1066,6 +1066,27 @@
   </si>
   <si>
     <t>3-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Max Purcell</t>
+  </si>
+  <si>
+    <t>Tommy Paul</t>
+  </si>
+  <si>
+    <t>Jordan Thompson (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-7(0) 6-3</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>2-6 7-6(4) 6-3</t>
+  </si>
+  <si>
+    <t>5-7 7-6(7) 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1332,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1389,7 +1410,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1871,7 +1892,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.89795918367346939</c:v>
+                  <c:v>0.8867924528301887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3249,6 +3270,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5162,7 +5187,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69:C75"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6291,10 +6316,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E63" activeCellId="10" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E71" activeCellId="5" sqref="E11 E24 E40 E47 E65 E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7135,7 +7160,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7147,6 +7172,82 @@
       </c>
       <c r="F65" t="s">
         <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>162</v>
+      </c>
+      <c r="D69" t="s">
+        <v>342</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>163</v>
+      </c>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>164</v>
+      </c>
+      <c r="D71" t="s">
+        <v>273</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7285,20 +7386,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.89795918367346939</v>
+        <v>0.8867924528301887</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7307,7 +7408,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7315,15 +7416,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.73372781065088755</v>
+        <v>0.73410404624277459</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7332,7 +7433,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7340,15 +7441,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>33.799999999999997</v>
+        <v>34.6</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>9</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.73372781065088755</v>
+        <v>0.73410404624277459</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10258" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03FD1778-5BCF-43F2-9096-DC6359782E6B}"/>
+  <xr:revisionPtr revIDLastSave="10282" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E0F773-A43B-4512-AE01-54C310A51DF2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="358">
   <si>
     <t>ROUND</t>
   </si>
@@ -1087,6 +1087,33 @@
   </si>
   <si>
     <t>5-7 7-6(7) 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-2 3-2 RETIRED</t>
+  </si>
+  <si>
+    <t>6-3 6-1 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-2 6-3 4-6 6-3</t>
+  </si>
+  <si>
+    <t>6-3 6-3 6-4</t>
+  </si>
+  <si>
+    <t>6-3 6-2 6-4</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-1 3-6 6-3</t>
+  </si>
+  <si>
+    <t>Dominik Koepfer (GERMANY)</t>
+  </si>
+  <si>
+    <t>Lloyd Harris (SOUTH AFRICA)</t>
+  </si>
+  <si>
+    <t>Matteo Arnaldi (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1359,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1410,7 +1437,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,7 +1919,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8867924528301887</c:v>
+                  <c:v>0.87931034482758619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6316,10 +6343,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E71" activeCellId="5" sqref="E11 E24 E40 E47 E65 E71"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E73" activeCellId="12" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64 E67:E70 E73:E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7248,6 +7275,96 @@
       </c>
       <c r="F71" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>249</v>
+      </c>
+      <c r="B73" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" t="s">
+        <v>355</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D74" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" t="s">
+        <v>251</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" t="s">
+        <v>357</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" t="s">
+        <v>203</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -7386,20 +7503,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.8867924528301887</v>
+        <v>0.87931034482758619</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7408,7 +7525,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7416,15 +7533,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.73410404624277459</v>
+        <v>0.7359550561797753</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7433,7 +7550,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7441,15 +7558,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>34.6</v>
+        <v>35.6</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>9.1999999999999993</v>
+        <v>9.4</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.73410404624277459</v>
+        <v>0.7359550561797753</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10282" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5E0F773-A43B-4512-AE01-54C310A51DF2}"/>
+  <xr:revisionPtr revIDLastSave="10301" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509BB7EC-E4E4-4C8E-87E8-B74F5C590EE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="359">
   <si>
     <t>ROUND</t>
   </si>
@@ -1068,12 +1068,6 @@
     <t>3-6 6-4 6-3</t>
   </si>
   <si>
-    <t>Max Purcell</t>
-  </si>
-  <si>
-    <t>Tommy Paul</t>
-  </si>
-  <si>
     <t>Jordan Thompson (AUSTRALIA)</t>
   </si>
   <si>
@@ -1114,6 +1108,15 @@
   </si>
   <si>
     <t>Matteo Arnaldi (ITALY)</t>
+  </si>
+  <si>
+    <t>CHINA OPEN</t>
+  </si>
+  <si>
+    <t>Yannick Hanfmann (GERMANY)</t>
+  </si>
+  <si>
+    <t>Max Purcell (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1362,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1437,7 +1440,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,7 +1922,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87931034482758619</c:v>
+                  <c:v>0.86885245901639341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,10 +3300,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6343,10 +6342,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E73" activeCellId="12" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64 E67:E70 E73:E77"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E83" activeCellId="7" sqref="E11 E24 E40 E47 E65 E71 E78 E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7212,7 +7211,7 @@
         <v>142</v>
       </c>
       <c r="D67" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E67" s="4" t="s">
         <v>11</v>
@@ -7226,13 +7225,13 @@
         <v>144</v>
       </c>
       <c r="D68" t="s">
+        <v>283</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
         <v>343</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -7240,13 +7239,13 @@
         <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -7260,7 +7259,7 @@
         <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -7274,7 +7273,7 @@
         <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -7288,13 +7287,13 @@
         <v>198</v>
       </c>
       <c r="D73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E73" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -7302,13 +7301,13 @@
         <v>141</v>
       </c>
       <c r="D74" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7322,7 +7321,7 @@
         <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -7330,13 +7329,13 @@
         <v>144</v>
       </c>
       <c r="D76" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -7350,7 +7349,7 @@
         <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -7364,7 +7363,69 @@
         <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>354</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C80" t="s">
+        <v>142</v>
+      </c>
+      <c r="D80" t="s">
+        <v>357</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="D83" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -7503,20 +7564,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.87931034482758619</v>
+        <v>0.86885245901639341</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7525,7 +7586,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7533,15 +7594,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.7359550561797753</v>
+        <v>0.73480662983425415</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7550,7 +7611,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>12.6</v>
+        <v>12.8</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7558,15 +7619,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>35.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.7359550561797753</v>
+        <v>0.73480662983425415</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10301" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{509BB7EC-E4E4-4C8E-87E8-B74F5C590EE4}"/>
+  <xr:revisionPtr revIDLastSave="10317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9008C62B-3230-4ABA-9821-97B8ED67B6B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="367">
   <si>
     <t>ROUND</t>
   </si>
@@ -1117,6 +1117,30 @@
   </si>
   <si>
     <t>Max Purcell (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>SHANGHAI MASTERS</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>Grégoire Barrère (FRANCE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-2 7-5 </t>
+  </si>
+  <si>
+    <t>7-6(1) 6-4</t>
+  </si>
+  <si>
+    <t>5-7 6-2 6-4</t>
   </si>
 </sst>
 </file>
@@ -1362,7 +1386,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1440,7 +1464,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,7 +1946,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.86885245901639341</c:v>
+                  <c:v>0.8571428571428571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3300,6 +3324,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3603,20 +3631,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3636,7 +3664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3656,7 +3684,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3670,7 +3698,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3690,7 +3718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3704,7 +3732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3718,7 +3746,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3753,20 +3781,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3786,7 +3814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3806,7 +3834,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -3820,7 +3848,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -3840,7 +3868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -3854,7 +3882,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -3868,7 +3896,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3888,7 +3916,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -3902,7 +3930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -3916,7 +3944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -3930,7 +3958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -3944,7 +3972,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -3958,7 +3986,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -3972,7 +4000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -3992,7 +4020,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4006,7 +4034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4020,7 +4048,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4034,7 +4062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4048,7 +4076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4068,7 +4096,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4088,7 +4116,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4102,7 +4130,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4122,7 +4150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4136,7 +4164,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4150,7 +4178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4164,7 +4192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4178,7 +4206,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4198,7 +4226,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4212,7 +4240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4226,7 +4254,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4240,7 +4268,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4254,7 +4282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4289,20 +4317,20 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4322,7 +4350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4342,7 +4370,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4356,7 +4384,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4370,7 +4398,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4390,7 +4418,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4404,7 +4432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4424,7 +4452,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4444,7 +4472,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4458,7 +4486,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4478,7 +4506,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4498,7 +4526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4518,7 +4546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4532,7 +4560,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4546,7 +4574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4560,7 +4588,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4580,7 +4608,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4600,7 +4628,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4614,7 +4642,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4628,7 +4656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4648,7 +4676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4662,7 +4690,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4682,7 +4710,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4696,7 +4724,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4710,7 +4738,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4724,7 +4752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4738,7 +4766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4752,7 +4780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4772,7 +4800,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -4786,7 +4814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -4806,7 +4834,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -4820,7 +4848,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -4834,7 +4862,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -4848,7 +4876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -4862,7 +4890,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4882,7 +4910,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -4902,7 +4930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -4916,7 +4944,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -4930,7 +4958,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -4950,7 +4978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4964,7 +4992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -4978,7 +5006,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -4992,7 +5020,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5012,7 +5040,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5026,7 +5054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5040,7 +5068,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5054,7 +5082,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5068,7 +5096,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5088,7 +5116,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5108,7 +5136,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5122,7 +5150,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5136,7 +5164,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5150,7 +5178,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5170,7 +5198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5184,7 +5212,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5213,20 +5241,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5246,7 +5274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5266,7 +5294,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5280,7 +5308,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5294,7 +5322,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5314,7 +5342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5328,7 +5356,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5342,7 +5370,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5356,7 +5384,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5370,7 +5398,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5387,7 +5415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5407,7 +5435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5421,7 +5449,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5435,7 +5463,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5449,7 +5477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5463,7 +5491,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5483,7 +5511,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5497,7 +5525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5511,7 +5539,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5525,7 +5553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5539,7 +5567,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5553,7 +5581,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5573,7 +5601,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5593,7 +5621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5607,7 +5635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5621,7 +5649,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5635,7 +5663,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5649,7 +5677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5669,7 +5697,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5683,7 +5711,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5697,7 +5725,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5711,7 +5739,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5725,7 +5753,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5745,7 +5773,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5759,7 +5787,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5773,7 +5801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -5787,7 +5815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -5801,7 +5829,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -5821,7 +5849,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -5835,7 +5863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -5849,7 +5877,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -5863,7 +5891,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5883,7 +5911,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -5897,7 +5925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5911,7 +5939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -5925,7 +5953,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -5939,7 +5967,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -5959,7 +5987,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -5973,7 +6001,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -5987,7 +6015,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6001,7 +6029,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6021,7 +6049,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6041,7 +6069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6055,7 +6083,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6069,7 +6097,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6089,7 +6117,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6103,7 +6131,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6117,7 +6145,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6131,7 +6159,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6145,7 +6173,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6159,7 +6187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6173,7 +6201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6190,7 +6218,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6201,7 +6229,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6221,7 +6249,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6241,7 +6269,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6255,7 +6283,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6269,7 +6297,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6283,7 +6311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6303,7 +6331,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6317,7 +6345,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6342,23 +6370,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E83" activeCellId="7" sqref="E11 E24 E40 E47 E65 E71 E78 E83"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E85" activeCellId="14" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64 E67:E70 E73:E77 E80:E82 E85:E86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6378,7 +6406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6398,7 +6426,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6412,7 +6440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6426,7 +6454,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6440,7 +6468,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6460,7 +6488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6474,7 +6502,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6488,7 +6516,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6502,7 +6530,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6516,7 +6544,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6536,7 +6564,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6550,7 +6578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6564,7 +6592,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6578,7 +6606,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6592,7 +6620,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6606,7 +6634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6626,7 +6654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6640,7 +6668,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6654,7 +6682,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6668,7 +6696,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6682,7 +6710,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6716,7 +6744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6730,7 +6758,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6744,7 +6772,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6758,7 +6786,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6778,7 +6806,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6792,7 +6820,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6806,7 +6834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6820,7 +6848,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -6834,7 +6862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6848,7 +6876,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -6868,7 +6896,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -6882,7 +6910,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6902,7 +6930,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -6916,7 +6944,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -6930,7 +6958,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -6944,7 +6972,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -6958,7 +6986,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -6972,7 +7000,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -6992,7 +7020,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7006,7 +7034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7020,7 +7048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7034,7 +7062,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7048,7 +7076,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7068,7 +7096,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7082,7 +7110,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7096,7 +7124,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7110,7 +7138,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7124,7 +7152,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7138,7 +7166,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7152,7 +7180,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7172,7 +7200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7186,7 +7214,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7200,7 +7228,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7220,7 +7248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7234,7 +7262,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7248,7 +7276,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7262,7 +7290,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7276,7 +7304,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7296,7 +7324,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7310,7 +7338,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7324,7 +7352,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7338,7 +7366,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7352,7 +7380,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7366,7 +7394,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7386,7 +7414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7400,7 +7428,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7414,7 +7442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7426,6 +7454,54 @@
       </c>
       <c r="F83" t="s">
         <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>359</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>360</v>
+      </c>
+      <c r="D85" t="s">
+        <v>363</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="s">
+        <v>361</v>
+      </c>
+      <c r="D86" t="s">
+        <v>251</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C87" t="s">
+        <v>362</v>
+      </c>
+      <c r="D87" t="s">
+        <v>292</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7445,17 +7521,17 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7475,7 +7551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -7496,7 +7572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7517,7 +7593,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -7538,7 +7614,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -7559,34 +7635,34 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.86885245901639341</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.8571428571428571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7594,24 +7670,24 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.73480662983425415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.73224043715846998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>12.8</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7619,15 +7695,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>36.200000000000003</v>
+        <v>36.6</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>9.6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.73480662983425415</v>
+        <v>0.73224043715846998</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10317" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9008C62B-3230-4ABA-9821-97B8ED67B6B5}"/>
+  <xr:revisionPtr revIDLastSave="10332" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797951F7-48D2-44A9-9061-A727FD5966FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="365">
   <si>
     <t>ROUND</t>
   </si>
@@ -1122,15 +1122,6 @@
     <t>SHANGHAI MASTERS</t>
   </si>
   <si>
-    <t>2nd</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>Grégoire Barrère (FRANCE)</t>
   </si>
   <si>
@@ -1141,6 +1132,9 @@
   </si>
   <si>
     <t>5-7 6-2 6-4</t>
+  </si>
+  <si>
+    <t>Roman Safiullin (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1458,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1946,7 +1940,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.84126984126984128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3233,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F635182-092C-44EB-8025-A1528C7616D2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3250,7 +3244,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3630,21 +3624,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3664,7 +3658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3684,7 +3678,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3698,7 +3692,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3718,7 +3712,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3732,7 +3726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3746,7 +3740,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3780,21 +3774,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3814,7 +3808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3834,7 +3828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -3848,7 +3842,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -3882,7 +3876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -3896,7 +3890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3916,7 +3910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -3930,7 +3924,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -3944,7 +3938,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -3958,7 +3952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -3972,7 +3966,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -3986,7 +3980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4000,7 +3994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4020,7 +4014,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4034,7 +4028,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4048,7 +4042,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4062,7 +4056,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4076,7 +4070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4116,7 +4110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4130,7 +4124,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4150,7 +4144,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4164,7 +4158,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4178,7 +4172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4192,7 +4186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4206,7 +4200,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4226,7 +4220,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4240,7 +4234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4254,7 +4248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4268,7 +4262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4282,7 +4276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4316,21 +4310,21 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4350,7 +4344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4370,7 +4364,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4384,7 +4378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4398,7 +4392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4418,7 +4412,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4432,7 +4426,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4452,7 +4446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4472,7 +4466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4486,7 +4480,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4526,7 +4520,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4546,7 +4540,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4560,7 +4554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4574,7 +4568,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4588,7 +4582,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4608,7 +4602,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4628,7 +4622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4642,7 +4636,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4656,7 +4650,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4676,7 +4670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4690,7 +4684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4710,7 +4704,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4724,7 +4718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4738,7 +4732,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4752,7 +4746,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4766,7 +4760,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4780,7 +4774,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4800,7 +4794,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -4814,7 +4808,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -4848,7 +4842,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -4862,7 +4856,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -4876,7 +4870,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -4890,7 +4884,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4910,7 +4904,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -4930,7 +4924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -4944,7 +4938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -4958,7 +4952,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -4978,7 +4972,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4992,7 +4986,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5006,7 +5000,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5020,7 +5014,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5040,7 +5034,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5054,7 +5048,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5068,7 +5062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5082,7 +5076,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5096,7 +5090,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5116,7 +5110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5136,7 +5130,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5150,7 +5144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5164,7 +5158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5178,7 +5172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5198,7 +5192,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5212,7 +5206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5240,21 +5234,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5274,7 +5268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5294,7 +5288,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5308,7 +5302,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5322,7 +5316,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5342,7 +5336,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5356,7 +5350,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5370,7 +5364,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5384,7 +5378,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5398,7 +5392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5415,7 +5409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5435,7 +5429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5463,7 +5457,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5477,7 +5471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5491,7 +5485,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5511,7 +5505,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5525,7 +5519,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5539,7 +5533,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5553,7 +5547,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5567,7 +5561,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5581,7 +5575,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5601,7 +5595,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5621,7 +5615,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5635,7 +5629,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5649,7 +5643,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5663,7 +5657,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5677,7 +5671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5697,7 +5691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5711,7 +5705,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5725,7 +5719,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5739,7 +5733,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5753,7 +5747,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5773,7 +5767,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5787,7 +5781,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5801,7 +5795,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -5815,7 +5809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -5829,7 +5823,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -5849,7 +5843,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -5863,7 +5857,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -5877,7 +5871,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -5891,7 +5885,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5911,7 +5905,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -5925,7 +5919,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5939,7 +5933,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -5953,7 +5947,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -5967,7 +5961,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -5987,7 +5981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6001,7 +5995,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6015,7 +6009,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6029,7 +6023,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6049,7 +6043,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6069,7 +6063,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6083,7 +6077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6097,7 +6091,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6117,7 +6111,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6131,7 +6125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6145,7 +6139,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6159,7 +6153,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6173,7 +6167,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6187,7 +6181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6201,7 +6195,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6218,7 +6212,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6229,7 +6223,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6249,7 +6243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6269,7 +6263,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6283,7 +6277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6297,7 +6291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6311,7 +6305,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6331,7 +6325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6345,7 +6339,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6370,23 +6364,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F87"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E85" activeCellId="14" sqref="E2:E5 E7:E10 E13:E18 E20:E23 E26:E30 E32:E37 E39 E42:E46 E49:E53 E55:E61 E63:E64 E67:E70 E73:E77 E80:E82 E85:E86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6406,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6426,7 +6420,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6440,7 +6434,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6454,7 +6448,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6468,7 +6462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6488,7 +6482,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6502,7 +6496,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6516,7 +6510,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6530,7 +6524,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6544,7 +6538,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6564,7 +6558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6578,7 +6572,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6592,7 +6586,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6606,7 +6600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6620,7 +6614,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6634,7 +6628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6654,7 +6648,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6668,7 +6662,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6682,7 +6676,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6696,7 +6690,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6710,7 +6704,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6730,7 +6724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6744,7 +6738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6758,7 +6752,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6772,7 +6766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6786,7 +6780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6806,7 +6800,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6820,7 +6814,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6834,7 +6828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6848,7 +6842,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -6862,7 +6856,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6876,7 +6870,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -6896,7 +6890,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -6910,7 +6904,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6930,7 +6924,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -6944,7 +6938,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -6958,7 +6952,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -6972,7 +6966,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -6986,7 +6980,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7000,7 +6994,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7020,7 +7014,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7034,7 +7028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7048,7 +7042,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7062,7 +7056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7076,7 +7070,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7096,7 +7090,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7110,7 +7104,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7124,7 +7118,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7138,7 +7132,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7152,7 +7146,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7166,7 +7160,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7180,7 +7174,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7200,7 +7194,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7214,7 +7208,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7228,7 +7222,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7248,7 +7242,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7262,7 +7256,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7276,7 +7270,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7290,7 +7284,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7304,7 +7298,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7324,7 +7318,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7338,7 +7332,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7352,7 +7346,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7366,7 +7360,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7380,7 +7374,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7394,7 +7388,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7414,7 +7408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7428,7 +7422,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7442,7 +7436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7456,7 +7450,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7464,21 +7458,21 @@
         <v>14</v>
       </c>
       <c r="C85" t="s">
+        <v>141</v>
+      </c>
+      <c r="D85" t="s">
         <v>360</v>
       </c>
-      <c r="D85" t="s">
-        <v>363</v>
-      </c>
       <c r="E85" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
-        <v>361</v>
+        <v>142</v>
       </c>
       <c r="D86" t="s">
         <v>251</v>
@@ -7487,12 +7481,12 @@
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
-        <v>362</v>
+        <v>144</v>
       </c>
       <c r="D87" t="s">
         <v>292</v>
@@ -7501,7 +7495,27 @@
         <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>366</v>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+      <c r="D89" t="s">
+        <v>364</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -7518,20 +7532,20 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7551,7 +7565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -7572,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7593,7 +7607,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -7614,7 +7628,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -7635,12 +7649,12 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -7649,20 +7663,20 @@
         <v>63</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.8571428571428571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.84126984126984128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7674,20 +7688,20 @@
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.73224043715846998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.72677595628415304</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7699,11 +7713,11 @@
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>9.8000000000000007</v>
+        <v>10</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.73224043715846998</v>
+        <v>0.72677595628415304</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -6366,7 +6366,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10332" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{797951F7-48D2-44A9-9061-A727FD5966FC}"/>
+  <xr:revisionPtr revIDLastSave="10352" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041CBFC2-DED9-4EAA-9DB4-A1F1FCD0D465}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="370">
   <si>
     <t>ROUND</t>
   </si>
@@ -1135,6 +1135,21 @@
   </si>
   <si>
     <t>Roman Safiullin (RUSSIA)</t>
+  </si>
+  <si>
+    <t>ATP FINALS</t>
+  </si>
+  <si>
+    <t>Group Stage</t>
+  </si>
+  <si>
+    <t>Andrey Rublev (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>7-5 6-2</t>
   </si>
 </sst>
 </file>
@@ -1380,7 +1395,7 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1458,7 +1473,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1940,7 +1955,7 @@
                   <c:v>0.78947368421052633</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.84126984126984128</c:v>
+                  <c:v>0.81538461538461537</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3248,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F635182-092C-44EB-8025-A1528C7616D2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3244,7 +3259,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3624,7 +3639,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3774,7 +3789,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4310,7 +4325,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5234,7 +5249,7 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A70" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6364,10 +6379,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7518,6 +7533,68 @@
         <v>25</v>
       </c>
     </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>365</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+      <c r="C91" t="s">
+        <v>366</v>
+      </c>
+      <c r="D91" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="D93" t="s">
+        <v>226</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C94" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" t="s">
+        <v>273</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7532,7 +7609,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7654,20 +7731,20 @@
         <v>2023</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="0"/>
-        <v>0.84126984126984128</v>
+        <v>0.81538461538461537</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7676,7 +7753,7 @@
       </c>
       <c r="B7" s="2">
         <f>SUM(B2:B6)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2">
         <f>SUM(C2:C6)</f>
@@ -7684,15 +7761,15 @@
       </c>
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E7" s="2">
         <f>SUM(E2:E6)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F7" s="6">
         <f t="shared" si="0"/>
-        <v>0.72677595628415304</v>
+        <v>0.7189189189189189</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -7701,7 +7778,7 @@
       </c>
       <c r="B8" s="2">
         <f>AVERAGE(B2:B6)</f>
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C8" s="2">
         <f>AVERAGE(C2:C6)</f>
@@ -7709,15 +7786,15 @@
       </c>
       <c r="D8" s="2">
         <f>AVERAGE(D2:D6)</f>
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2">
         <f>AVERAGE(E2:E6)</f>
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F8" s="6">
         <f t="shared" si="0"/>
-        <v>0.72677595628415304</v>
+        <v>0.7189189189189189</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10352" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{041CBFC2-DED9-4EAA-9DB4-A1F1FCD0D465}"/>
+  <xr:revisionPtr revIDLastSave="10354" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3187035A-C2EF-4C33-A869-DE2F9A9B3243}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -3248,7 +3248,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F635182-092C-44EB-8025-A1528C7616D2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3259,7 +3259,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -3331,10 +3331,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3639,8 +3635,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3789,8 +3785,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4325,8 +4321,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5249,8 +5245,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A70" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6381,13 +6377,13 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
@@ -7609,7 +7605,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10354" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3187035A-C2EF-4C33-A869-DE2F9A9B3243}"/>
+  <xr:revisionPtr revIDLastSave="10355" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1794A502-56D4-4A69-92BA-17F4D936ED4E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3639,17 +3639,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3789,17 +3789,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4325,17 +4325,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5249,17 +5249,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6381,17 +6381,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7608,17 +7608,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.7189189189189189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10355" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1794A502-56D4-4A69-92BA-17F4D936ED4E}"/>
+  <xr:revisionPtr revIDLastSave="10356" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2273B141-435D-407D-B16B-7AB3284D5CE0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3639,17 +3639,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3789,17 +3789,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4325,17 +4325,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5249,17 +5249,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6381,17 +6381,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7608,17 +7608,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.7189189189189189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10356" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2273B141-435D-407D-B16B-7AB3284D5CE0}"/>
+  <xr:revisionPtr revIDLastSave="10357" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52974486-18E5-426A-AFC7-02FE8F697B47}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -3639,17 +3639,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3789,17 +3789,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -3873,7 +3873,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -3901,7 +3901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -3977,7 +3977,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4067,7 +4067,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4135,7 +4135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4211,7 +4211,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4325,17 +4325,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4423,7 +4423,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4511,7 +4511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4729,7 +4729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -4819,7 +4819,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -4853,7 +4853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -4867,7 +4867,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -4949,7 +4949,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5059,7 +5059,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5155,7 +5155,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5203,7 +5203,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5249,17 +5249,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5347,7 +5347,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5572,7 +5572,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5606,7 +5606,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -5834,7 +5834,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6178,7 +6178,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6381,17 +6381,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6445,7 +6445,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6535,7 +6535,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6549,7 +6549,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6569,7 +6569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6625,7 +6625,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6777,7 +6777,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -6811,7 +6811,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -6901,7 +6901,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -6949,7 +6949,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -6963,7 +6963,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -6977,7 +6977,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7101,7 +7101,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7143,7 +7143,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7233,7 +7233,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7253,7 +7253,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7267,7 +7267,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7309,7 +7309,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7329,7 +7329,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7371,7 +7371,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7433,7 +7433,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7608,17 +7608,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -7701,7 +7701,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -7768,7 +7768,7 @@
         <v>0.7189189189189189</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10357" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52974486-18E5-426A-AFC7-02FE8F697B47}"/>
+  <xr:revisionPtr revIDLastSave="10404" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAE46B06-928F-4562-BFF2-DA5C95A43B7B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="2021" sheetId="28" r:id="rId3"/>
     <sheet name="2022" sheetId="33" r:id="rId4"/>
     <sheet name="2023" sheetId="40" r:id="rId5"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId6"/>
-    <sheet name="Wins-Losses" sheetId="41" r:id="rId7"/>
-    <sheet name="Winning Percentile Range" sheetId="42" r:id="rId8"/>
+    <sheet name="2024" sheetId="43" r:id="rId6"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
+    <sheet name="Wins-Losses" sheetId="44" r:id="rId8"/>
+    <sheet name="Winning Percentile Range" sheetId="45" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="376">
   <si>
     <t>ROUND</t>
   </si>
@@ -1150,6 +1151,24 @@
   </si>
   <si>
     <t>7-5 6-2</t>
+  </si>
+  <si>
+    <t>JC Chang (CHINA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-4 6-7(3) 6-3 7-6(3)</t>
+  </si>
+  <si>
+    <t>6-1 6-1 1-0 RETIRED</t>
+  </si>
+  <si>
+    <t>6-4 6-4 6-0</t>
+  </si>
+  <si>
+    <t>6-1 6-3 6-7(2) 6-4</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1373,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1373,15 +1392,18 @@
                 <c:pt idx="4">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$6</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1397,12 +1419,15 @@
                 <c:pt idx="4">
                   <c:v>65</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6436-4FA1-9E5F-62BD767D4E17}"/>
+              <c16:uniqueId val="{00000000-C315-4F29-94A2-19566AEE7946}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1432,10 +1457,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1451,15 +1476,18 @@
                 <c:pt idx="4">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$6</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1475,12 +1503,15 @@
                 <c:pt idx="4">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6436-4FA1-9E5F-62BD767D4E17}"/>
+              <c16:uniqueId val="{00000001-C315-4F29-94A2-19566AEE7946}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1494,11 +1525,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="969790175"/>
-        <c:axId val="969783935"/>
+        <c:axId val="1106315327"/>
+        <c:axId val="526912015"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="969790175"/>
+        <c:axId val="1106315327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1627,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="969783935"/>
+        <c:crossAx val="526912015"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1604,7 +1635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="969783935"/>
+        <c:axId val="526912015"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1710,7 +1741,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="969790175"/>
+        <c:crossAx val="1106315327"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1820,8 +1851,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Carlos Alcaraz (SPAIN): Wins-Losses</a:t>
+              <a:t>Carlos Alcaraz (SPAIN):</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> Wins-Losses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1914,10 +1950,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$6</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1933,15 +1969,18 @@
                 <c:pt idx="4">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$6</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1957,13 +1996,16 @@
                 <c:pt idx="4">
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-83CD-4560-A478-F11D3B864BF5}"/>
+              <c16:uniqueId val="{00000001-98F0-45BF-A6C2-6FD9CE967CB2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1977,16 +2019,71 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1171696031"/>
-        <c:axId val="1171696447"/>
+        <c:axId val="527230207"/>
+        <c:axId val="960813583"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1171696031"/>
+        <c:axId val="527230207"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>YEAR</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2024,7 +2121,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171696447"/>
+        <c:crossAx val="960813583"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2032,7 +2129,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1171696447"/>
+        <c:axId val="960813583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,6 +2149,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>PERCENTAGE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2083,7 +2235,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1171696031"/>
+        <c:crossAx val="527230207"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3245,7 +3397,19 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3F635182-092C-44EB-8025-A1528C7616D2}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{71DB6E61-E45D-46BE-B957-8E69693332BF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA1731C9-E153-41CF-A12F-5288C10B72E7}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3255,29 +3419,17 @@
 </chartsheet>
 </file>
 
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{7F6CFFB0-258D-42D4-80E8-C2180D3E9E44}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656320" cy="6278880"/>
+    <xdr:ext cx="8582025" cy="5838825"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50EEE837-D0CE-129B-3E5A-FED4D400D2FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DFAAC2-0F7D-C151-9BD7-52ED789F13C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3304,13 +3456,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8572500" cy="5827568"/>
+    <xdr:ext cx="8675165" cy="6296766"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1C06F59-062C-8347-666D-76B9BD5A31CB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641177BB-968A-375A-FEEB-4D5CE89BBFCA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3333,10 +3485,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3374,7 +3530,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3480,7 +3636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3622,7 +3778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3635,7 +3791,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3785,7 +3941,7 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4321,7 +4477,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5245,8 +5401,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6377,8 +6533,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7598,14 +7754,137 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A44801-0BEA-4D56-8F8B-2EFF29695960}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7744,57 +8023,78 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <f>SUM(B2:B6)</f>
-        <v>67</v>
-      </c>
-      <c r="C7" s="2">
-        <f>SUM(C2:C6)</f>
-        <v>12</v>
-      </c>
-      <c r="D7" s="2">
-        <f>SUM(D2:D6)</f>
-        <v>185</v>
-      </c>
-      <c r="E7" s="2">
-        <f>SUM(E2:E6)</f>
-        <v>52</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="A7">
+        <v>2024</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.7189189189189189</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <f>SUM(B2:B7)</f>
+        <v>68</v>
+      </c>
+      <c r="C8" s="2">
+        <f>SUM(C2:C7)</f>
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(D2:D7)</f>
+        <v>189</v>
+      </c>
+      <c r="E8" s="2">
+        <f>SUM(E2:E7)</f>
+        <v>53</v>
+      </c>
+      <c r="F8" s="6">
+        <f>(D8-E8)/D8</f>
+        <v>0.71957671957671954</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2">
-        <f>AVERAGE(B2:B6)</f>
-        <v>13.4</v>
-      </c>
-      <c r="C8" s="2">
-        <f>AVERAGE(C2:C6)</f>
-        <v>2.4</v>
-      </c>
-      <c r="D8" s="2">
-        <f>AVERAGE(D2:D6)</f>
-        <v>37</v>
-      </c>
-      <c r="E8" s="2">
-        <f>AVERAGE(E2:E6)</f>
-        <v>10.4</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="0"/>
-        <v>0.7189189189189189</v>
+      <c r="B9" s="2">
+        <f>AVERAGE(B2:B7)</f>
+        <v>11.333333333333334</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE(C2:C7)</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <f>AVERAGE(D2:D7)</f>
+        <v>31.5</v>
+      </c>
+      <c r="E9" s="2">
+        <f>AVERAGE(E2:E7)</f>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(D9-E9)/D9</f>
+        <v>0.71957671957671954</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F6">
+  <conditionalFormatting sqref="F2:F7">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10404" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAE46B06-928F-4562-BFF2-DA5C95A43B7B}"/>
+  <xr:revisionPtr revIDLastSave="10422" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEC1930-DEC1-4FA6-9EA3-5547E115A962}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="8" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="379">
   <si>
     <t>ROUND</t>
   </si>
@@ -1169,6 +1169,15 @@
   </si>
   <si>
     <t>6-1 6-3 6-7(2) 6-4</t>
+  </si>
+  <si>
+    <t>Camilo Ugo Carabelli (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>Andrea Vavassori (ITALY)</t>
+  </si>
+  <si>
+    <t>7-6(1) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1420,7 +1429,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1513,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1997,7 +2006,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3412,7 +3421,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA1731C9-E153-41CF-A12F-5288C10B72E7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3456,7 +3465,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8675165" cy="6296766"/>
+    <xdr:ext cx="8667750" cy="6296025"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3490,9 +3499,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3530,7 +3539,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3636,7 +3645,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3778,7 +3787,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6534,7 +6543,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7758,10 +7767,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E8" activeCellId="1" sqref="E2:E5 E8:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7769,7 +7778,7 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -7868,6 +7877,54 @@
       </c>
       <c r="F6" t="s">
         <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" t="s">
+        <v>302</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -7883,8 +7940,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7934,7 +7991,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -8027,20 +8084,20 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8049,7 +8106,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8057,15 +8114,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.71957671957671954</v>
+        <v>0.7172774869109948</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8074,7 +8131,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>11.333333333333334</v>
+        <v>11.5</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8082,15 +8139,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>31.5</v>
+        <v>31.833333333333332</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>8.8333333333333339</v>
+        <v>9</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.71957671957671954</v>
+        <v>0.7172774869109948</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10422" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BEC1930-DEC1-4FA6-9EA3-5547E115A962}"/>
+  <xr:revisionPtr revIDLastSave="10433" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7B09DD-0A7F-49AF-B6A3-E5A6B7FCDF6B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="6750" yWindow="3750" windowWidth="19305" windowHeight="17130" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="380">
   <si>
     <t>ROUND</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>7-6(1) 6-1</t>
+  </si>
+  <si>
+    <t>1-1 RETIRED</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1516,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2006,7 +2009,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7767,10 +7770,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="E2:E5 E8:E9"/>
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7927,6 +7930,26 @@
         <v>61</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>379</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -7941,7 +7964,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8084,7 +8107,7 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -8093,11 +8116,11 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8106,7 +8129,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8118,11 +8141,11 @@
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.7172774869109948</v>
+        <v>0.7120418848167539</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8131,7 +8154,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>11.5</v>
+        <v>11.666666666666666</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8143,11 +8166,11 @@
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>9</v>
+        <v>9.1666666666666661</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.7172774869109948</v>
+        <v>0.7120418848167539</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10433" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A7B09DD-0A7F-49AF-B6A3-E5A6B7FCDF6B}"/>
+  <xr:revisionPtr revIDLastSave="10459" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F50D1B-B720-40F6-AAED-CBD41261BFB2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="383">
   <si>
     <t>ROUND</t>
   </si>
@@ -1181,6 +1181,15 @@
   </si>
   <si>
     <t>1-1 RETIRED</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-0 6-1</t>
+  </si>
+  <si>
+    <t>1-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-1</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1441,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,7 +2018,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,14 +3506,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3542,7 +3547,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3648,7 +3653,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3790,7 +3795,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4490,7 +4495,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6545,8 +6550,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7770,15 +7775,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E14" activeCellId="2" sqref="E2:E5 E8:E9 E14:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
@@ -7948,6 +7953,96 @@
       </c>
       <c r="F12" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>250</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>203</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" t="s">
+        <v>226</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -7964,7 +8059,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8107,20 +8202,20 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8129,15 +8224,15 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
@@ -8145,7 +8240,7 @@
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.7120418848167539</v>
+        <v>0.7208121827411168</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8154,15 +8249,15 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>11.666666666666666</v>
+        <v>11.833333333333334</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>2</v>
+        <v>2.1666666666666665</v>
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>31.833333333333332</v>
+        <v>32.833333333333336</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
@@ -8170,7 +8265,7 @@
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.7120418848167539</v>
+        <v>0.7208121827411168</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10459" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84F50D1B-B720-40F6-AAED-CBD41261BFB2}"/>
+  <xr:revisionPtr revIDLastSave="10484" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63EF560A-3EB2-47A3-9F1B-450F5E72CB6A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="385">
   <si>
     <t>ROUND</t>
   </si>
@@ -1190,6 +1190,12 @@
   </si>
   <si>
     <t>7-6(5) 6-1</t>
+  </si>
+  <si>
+    <t>Roberto Carballés Baena (SPAIN)</t>
+  </si>
+  <si>
+    <t>6-2 6-1</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1447,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1525,7 +1531,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,7 +2024,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.75</c:v>
+                  <c:v>0.73333333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3506,6 +3512,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6550,8 +6560,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7775,10 +7785,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="E2:E5 E8:E9 E14:E19"/>
+      <selection activeCell="E21" activeCellId="3" sqref="E2:E5 E8:E9 E14:E19 E21:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8003,7 +8013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8017,7 +8027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8031,7 +8041,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8043,6 +8053,68 @@
       </c>
       <c r="F19" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" t="s">
+        <v>383</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s">
+        <v>265</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>292</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -8202,20 +8274,20 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.73333333333333328</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8224,7 +8296,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8232,15 +8304,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.7208121827411168</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8249,7 +8321,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>11.833333333333334</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8257,15 +8329,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>32.833333333333336</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>9.1666666666666661</v>
+        <v>9.3333333333333339</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.7208121827411168</v>
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10484" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63EF560A-3EB2-47A3-9F1B-450F5E72CB6A}"/>
+  <xr:revisionPtr revIDLastSave="10504" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9DED53F-2363-4BD4-B6B2-6B8CAAF8A7AF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="389">
   <si>
     <t>ROUND</t>
   </si>
@@ -1196,6 +1196,18 @@
   </si>
   <si>
     <t>6-2 6-1</t>
+  </si>
+  <si>
+    <t>Alexander Shevchenko (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>Thiago Seyboth Wild (BRAZIL)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-7(5) 7-6(4)</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1459,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1543,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2036,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.73333333333333328</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3512,10 +3524,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6560,8 +6568,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7785,10 +7793,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" activeCellId="3" sqref="E2:E5 E8:E9 E14:E19 E21:E23"/>
+      <selection activeCell="E26" activeCellId="4" sqref="E2:E5 E8:E9 E14:E19 E21:E23 E26:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7796,7 +7804,7 @@
     <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -8115,6 +8123,68 @@
       </c>
       <c r="F24" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" t="s">
+        <v>385</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -8274,20 +8344,20 @@
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.73333333333333328</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -8296,7 +8366,7 @@
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8304,15 +8374,15 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.72</v>
+        <v>0.71921182266009853</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -8321,7 +8391,7 @@
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>12</v>
+        <v>12.166666666666666</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8329,15 +8399,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>33.333333333333336</v>
+        <v>33.833333333333336</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>9.3333333333333339</v>
+        <v>9.5</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.72</v>
+        <v>0.71921182266009853</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10504" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9DED53F-2363-4BD4-B6B2-6B8CAAF8A7AF}"/>
+  <xr:revisionPtr revIDLastSave="10529" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03D8C29-2180-4888-B91D-FE007886693B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="398">
   <si>
     <t>ROUND</t>
   </si>
@@ -1208,6 +1208,33 @@
   </si>
   <si>
     <t>6-3 6-7(5) 7-6(4)</t>
+  </si>
+  <si>
+    <t>JJ Wolf (USA)</t>
+  </si>
+  <si>
+    <t>Jesper De Jong (NETHERLANDS)</t>
+  </si>
+  <si>
+    <t>6-1 6-2 6-1</t>
+  </si>
+  <si>
+    <t>6-3 6-4 2-6 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-3 6-1</t>
+  </si>
+  <si>
+    <t>2-6 6-3 3-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>6-3 2-6 5-7 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-4 7-6(5) 6-3</t>
+  </si>
+  <si>
+    <t>6-3 7-6(3) 6-4</t>
   </si>
 </sst>
 </file>
@@ -3462,7 +3489,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3830,17 +3857,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3860,7 +3887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3880,7 +3907,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3894,7 +3921,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3914,7 +3941,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3928,7 +3955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3942,7 +3969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -3980,17 +4007,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4010,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4030,7 +4057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4044,7 +4071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4064,7 +4091,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4078,7 +4105,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4092,7 +4119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4112,7 +4139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4126,7 +4153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4140,7 +4167,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4154,7 +4181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4168,7 +4195,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4182,7 +4209,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4196,7 +4223,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4216,7 +4243,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4230,7 +4257,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4244,7 +4271,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4258,7 +4285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4272,7 +4299,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4292,7 +4319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4312,7 +4339,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4326,7 +4353,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4346,7 +4373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4360,7 +4387,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4374,7 +4401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4388,7 +4415,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4402,7 +4429,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4422,7 +4449,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4436,7 +4463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4450,7 +4477,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4464,7 +4491,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4478,7 +4505,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4516,17 +4543,17 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4566,7 +4593,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4580,7 +4607,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4594,7 +4621,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4614,7 +4641,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4628,7 +4655,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4648,7 +4675,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4668,7 +4695,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4682,7 +4709,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4702,7 +4729,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4722,7 +4749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4742,7 +4769,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4756,7 +4783,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4770,7 +4797,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4784,7 +4811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4804,7 +4831,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4824,7 +4851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4838,7 +4865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4852,7 +4879,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4872,7 +4899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4886,7 +4913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4906,7 +4933,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4920,7 +4947,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4934,7 +4961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4948,7 +4975,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4962,7 +4989,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -4976,7 +5003,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -4996,7 +5023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5010,7 +5037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5030,7 +5057,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5044,7 +5071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5058,7 +5085,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5072,7 +5099,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5086,7 +5113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5106,7 +5133,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5126,7 +5153,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5140,7 +5167,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5154,7 +5181,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5174,7 +5201,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5188,7 +5215,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5202,7 +5229,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5216,7 +5243,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5236,7 +5263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5250,7 +5277,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5264,7 +5291,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5278,7 +5305,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5292,7 +5319,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5312,7 +5339,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5332,7 +5359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5346,7 +5373,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5360,7 +5387,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5374,7 +5401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5394,7 +5421,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5408,7 +5435,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5440,17 +5467,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5470,7 +5497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5490,7 +5517,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5504,7 +5531,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5518,7 +5545,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5538,7 +5565,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5552,7 +5579,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5566,7 +5593,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5580,7 +5607,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5594,7 +5621,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5611,7 +5638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5631,7 +5658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5645,7 +5672,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5659,7 +5686,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5673,7 +5700,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5687,7 +5714,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5707,7 +5734,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5721,7 +5748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5735,7 +5762,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5749,7 +5776,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5763,7 +5790,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5777,7 +5804,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5797,7 +5824,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5817,7 +5844,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5831,7 +5858,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5845,7 +5872,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5859,7 +5886,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5873,7 +5900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5893,7 +5920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5907,7 +5934,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5921,7 +5948,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5935,7 +5962,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5949,7 +5976,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5969,7 +5996,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -5983,7 +6010,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -5997,7 +6024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6011,7 +6038,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6025,7 +6052,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6045,7 +6072,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6059,7 +6086,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6073,7 +6100,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6087,7 +6114,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6107,7 +6134,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6121,7 +6148,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6135,7 +6162,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6149,7 +6176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6163,7 +6190,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6183,7 +6210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6197,7 +6224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6211,7 +6238,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6225,7 +6252,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6245,7 +6272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6265,7 +6292,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6279,7 +6306,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6293,7 +6320,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6313,7 +6340,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6327,7 +6354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6341,7 +6368,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6355,7 +6382,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6369,7 +6396,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6383,7 +6410,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6397,7 +6424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6414,7 +6441,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6425,7 +6452,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6445,7 +6472,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6465,7 +6492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6479,7 +6506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6493,7 +6520,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6507,7 +6534,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6527,7 +6554,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6541,7 +6568,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6568,21 +6595,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6602,7 +6629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6622,7 +6649,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6636,7 +6663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6650,7 +6677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6664,7 +6691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6684,7 +6711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6698,7 +6725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6712,7 +6739,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6726,7 +6753,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6740,7 +6767,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6760,7 +6787,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6774,7 +6801,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6788,7 +6815,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6802,7 +6829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6816,7 +6843,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6830,7 +6857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6850,7 +6877,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6864,7 +6891,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6878,7 +6905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6892,7 +6919,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6906,7 +6933,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6926,7 +6953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6940,7 +6967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6954,7 +6981,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6968,7 +6995,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -6982,7 +7009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7002,7 +7029,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7016,7 +7043,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7030,7 +7057,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7044,7 +7071,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7058,7 +7085,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7072,7 +7099,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7092,7 +7119,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7106,7 +7133,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7126,7 +7153,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7140,7 +7167,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7154,7 +7181,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7168,7 +7195,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7182,7 +7209,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7196,7 +7223,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7216,7 +7243,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7230,7 +7257,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7244,7 +7271,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7258,7 +7285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7272,7 +7299,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7292,7 +7319,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7306,7 +7333,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7320,7 +7347,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7334,7 +7361,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7348,7 +7375,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7362,7 +7389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7376,7 +7403,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7396,7 +7423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7410,7 +7437,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7424,7 +7451,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7444,7 +7471,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7458,7 +7485,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7472,7 +7499,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7486,7 +7513,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7500,7 +7527,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7520,7 +7547,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7534,7 +7561,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7548,7 +7575,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7562,7 +7589,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7576,7 +7603,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7590,7 +7617,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7610,7 +7637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7624,7 +7651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7638,7 +7665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7652,7 +7679,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7672,7 +7699,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7686,7 +7713,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7700,7 +7727,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7720,7 +7747,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7740,7 +7767,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7754,7 +7781,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7768,7 +7795,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7793,23 +7820,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" activeCellId="4" sqref="E2:E5 E8:E9 E14:E19 E21:E23 E26:E28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7829,7 +7856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7849,7 +7876,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7863,7 +7890,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7877,7 +7904,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -7891,7 +7918,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -7905,7 +7932,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -7925,7 +7952,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -7939,7 +7966,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -7953,7 +7980,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -7973,7 +8000,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -7993,7 +8020,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8007,7 +8034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8021,7 +8048,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8035,7 +8062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8049,7 +8076,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8063,7 +8090,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8083,7 +8110,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8097,7 +8124,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8111,7 +8138,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8125,7 +8152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8145,7 +8172,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8159,7 +8186,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8173,7 +8200,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8185,6 +8212,110 @@
       </c>
       <c r="F29" t="s">
         <v>387</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" t="s">
+        <v>390</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>203</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F37" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8200,21 +8331,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8234,7 +8365,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8255,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8276,7 +8407,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8297,7 +8428,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8318,7 +8449,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -8339,15 +8470,15 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -8360,17 +8491,17 @@
         <v>0.72222222222222221</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
@@ -8385,17 +8516,17 @@
         <v>0.71921182266009853</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>12.166666666666666</v>
+        <v>12.333333333333334</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>2.1666666666666665</v>
+        <v>2.3333333333333335</v>
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10529" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E03D8C29-2180-4888-B91D-FE007886693B}"/>
+  <xr:revisionPtr revIDLastSave="10540" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42539A0-67A3-4354-AC54-0F2C7582B8EC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1263" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="400">
   <si>
     <t>ROUND</t>
   </si>
@@ -1235,6 +1235,12 @@
   </si>
   <si>
     <t>6-3 7-6(3) 6-4</t>
+  </si>
+  <si>
+    <t>Francisco Cerúndolo (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>6-1 7-5</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1492,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1570,7 +1576,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,7 +2069,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72222222222222221</c:v>
+                  <c:v>0.68421052631578949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3551,6 +3557,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -3857,17 +3867,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3907,7 +3917,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3921,7 +3931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3941,7 +3951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3955,7 +3965,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3969,7 +3979,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -4007,17 +4017,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4037,7 +4047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4057,7 +4067,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4071,7 +4081,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4091,7 +4101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4105,7 +4115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4153,7 +4163,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4167,7 +4177,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4181,7 +4191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4195,7 +4205,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4209,7 +4219,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4223,7 +4233,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4243,7 +4253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4257,7 +4267,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4271,7 +4281,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4285,7 +4295,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4319,7 +4329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4339,7 +4349,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4353,7 +4363,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4387,7 +4397,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4401,7 +4411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4415,7 +4425,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4429,7 +4439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4449,7 +4459,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4463,7 +4473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4477,7 +4487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4491,7 +4501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4505,7 +4515,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4543,17 +4553,17 @@
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4573,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4593,7 +4603,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4607,7 +4617,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4621,7 +4631,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4641,7 +4651,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4655,7 +4665,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4675,7 +4685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4695,7 +4705,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4709,7 +4719,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4729,7 +4739,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4749,7 +4759,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4769,7 +4779,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4783,7 +4793,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4797,7 +4807,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4811,7 +4821,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4831,7 +4841,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4851,7 +4861,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4865,7 +4875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4879,7 +4889,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4913,7 +4923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4933,7 +4943,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4947,7 +4957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4961,7 +4971,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4975,7 +4985,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4989,7 +4999,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -5003,7 +5013,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5037,7 +5047,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5057,7 +5067,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5071,7 +5081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5085,7 +5095,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5099,7 +5109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5113,7 +5123,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5133,7 +5143,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5153,7 +5163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5167,7 +5177,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5181,7 +5191,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5201,7 +5211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5215,7 +5225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5229,7 +5239,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5263,7 +5273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5277,7 +5287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5291,7 +5301,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5305,7 +5315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5319,7 +5329,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5339,7 +5349,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5359,7 +5369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5373,7 +5383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5387,7 +5397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5401,7 +5411,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5421,7 +5431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5435,7 +5445,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5467,17 +5477,17 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5497,7 +5507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5517,7 +5527,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5531,7 +5541,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5545,7 +5555,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5565,7 +5575,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5579,7 +5589,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5593,7 +5603,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5607,7 +5617,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5621,7 +5631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5638,7 +5648,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5658,7 +5668,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5672,7 +5682,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5700,7 +5710,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5714,7 +5724,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5734,7 +5744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5748,7 +5758,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5762,7 +5772,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5776,7 +5786,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5790,7 +5800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5804,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5824,7 +5834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5844,7 +5854,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5858,7 +5868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5872,7 +5882,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5886,7 +5896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5900,7 +5910,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5920,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5934,7 +5944,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5948,7 +5958,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5962,7 +5972,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5976,7 +5986,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -5996,7 +6006,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -6010,7 +6020,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -6024,7 +6034,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6038,7 +6048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6052,7 +6062,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6072,7 +6082,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6086,7 +6096,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6100,7 +6110,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6114,7 +6124,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6134,7 +6144,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6148,7 +6158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6162,7 +6172,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6176,7 +6186,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6190,7 +6200,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6210,7 +6220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6224,7 +6234,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6238,7 +6248,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6252,7 +6262,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6272,7 +6282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6292,7 +6302,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6306,7 +6316,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6320,7 +6330,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6340,7 +6350,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6354,7 +6364,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6368,7 +6378,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6382,7 +6392,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6396,7 +6406,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6410,7 +6420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6424,7 +6434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6441,7 +6451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6452,7 +6462,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6472,7 +6482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6492,7 +6502,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6506,7 +6516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6520,7 +6530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6534,7 +6544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6554,7 +6564,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6568,7 +6578,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6596,20 +6606,20 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C61"/>
+      <selection activeCell="A49" sqref="A49:C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6629,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6649,7 +6659,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6663,7 +6673,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6677,7 +6687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6691,7 +6701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6711,7 +6721,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6725,7 +6735,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6739,7 +6749,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6753,7 +6763,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6767,7 +6777,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6787,7 +6797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6801,7 +6811,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6815,7 +6825,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6829,7 +6839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6843,7 +6853,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6857,7 +6867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6877,7 +6887,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6891,7 +6901,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6905,7 +6915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6919,7 +6929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6933,7 +6943,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6953,7 +6963,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6967,7 +6977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6981,7 +6991,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -6995,7 +7005,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -7009,7 +7019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7029,7 +7039,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7043,7 +7053,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7057,7 +7067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7071,7 +7081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7085,7 +7095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7099,7 +7109,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7119,7 +7129,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7133,7 +7143,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7153,7 +7163,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7167,7 +7177,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7181,7 +7191,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7195,7 +7205,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7209,7 +7219,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7223,7 +7233,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7243,7 +7253,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7257,7 +7267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7271,7 +7281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7285,7 +7295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7299,7 +7309,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7319,7 +7329,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7333,7 +7343,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7347,7 +7357,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7361,7 +7371,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7375,7 +7385,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7389,7 +7399,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7403,7 +7413,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7423,7 +7433,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7437,7 +7447,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7451,7 +7461,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7471,7 +7481,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7485,7 +7495,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7499,7 +7509,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7513,7 +7523,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7527,7 +7537,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7547,7 +7557,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7561,7 +7571,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7575,7 +7585,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7589,7 +7599,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7603,7 +7613,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7617,7 +7627,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7637,7 +7647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7651,7 +7661,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7665,7 +7675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7679,7 +7689,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7699,7 +7709,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7713,7 +7723,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7747,7 +7757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7767,7 +7777,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7781,7 +7791,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7795,7 +7805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7820,23 +7830,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7856,7 +7866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7876,7 +7886,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7890,7 +7900,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7904,7 +7914,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -7918,7 +7928,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -7932,7 +7942,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -7952,7 +7962,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -7966,7 +7976,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -7980,7 +7990,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -8000,7 +8010,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -8020,7 +8030,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8034,7 +8044,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8048,7 +8058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8062,7 +8072,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8076,7 +8086,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8090,7 +8100,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8110,7 +8120,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8124,7 +8134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8138,7 +8148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8152,7 +8162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8172,7 +8182,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8186,7 +8196,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8200,7 +8210,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8214,7 +8224,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8234,7 +8244,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -8248,7 +8258,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -8262,7 +8272,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -8276,7 +8286,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -8290,7 +8300,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -8304,7 +8314,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -8316,6 +8326,40 @@
       </c>
       <c r="F37" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>398</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -8331,21 +8375,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8365,7 +8409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8386,7 +8430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8407,7 +8451,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8428,7 +8472,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8449,7 +8493,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -8470,34 +8514,34 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.72222222222222221</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.68421052631578949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -8505,24 +8549,24 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.71921182266009853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.71568627450980393</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>12.333333333333334</v>
+        <v>12.5</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -8530,15 +8574,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>33.833333333333336</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>9.5</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.71921182266009853</v>
+        <v>0.71568627450980404</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10540" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B42539A0-67A3-4354-AC54-0F2C7582B8EC}"/>
+  <xr:revisionPtr revIDLastSave="10568" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885BD607-39E5-4EDF-ABD1-409B8E9BB46A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="409">
   <si>
     <t>ROUND</t>
   </si>
@@ -1241,6 +1241,33 @@
   </si>
   <si>
     <t>6-1 7-5</t>
+  </si>
+  <si>
+    <t>Mark Lajal</t>
+  </si>
+  <si>
+    <t>7-6(3) 7-5 6-2</t>
+  </si>
+  <si>
+    <t>7-6(5) 6-2 6-2</t>
+  </si>
+  <si>
+    <t>5-7 6-2 4-6 7-6(2) 6-2</t>
+  </si>
+  <si>
+    <t>6-3 6-4 1-6 7-5</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-2 6-2</t>
+  </si>
+  <si>
+    <t>6-7(1) 6-3 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-2 6-2 7-6(4)</t>
+  </si>
+  <si>
+    <t>Ugo Humbert (FRANCE)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1519,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2096,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68421052631578949</c:v>
+                  <c:v>0.81818181818181823</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3867,17 +3894,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3897,7 +3924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3917,7 +3944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3931,7 +3958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3951,7 +3978,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3965,7 +3992,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -3979,7 +4006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -4017,17 +4044,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4047,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4067,7 +4094,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4081,7 +4108,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4101,7 +4128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4115,7 +4142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4129,7 +4156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4149,7 +4176,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4163,7 +4190,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4177,7 +4204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4191,7 +4218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4205,7 +4232,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4219,7 +4246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4233,7 +4260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4253,7 +4280,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4267,7 +4294,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4281,7 +4308,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4295,7 +4322,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4309,7 +4336,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4329,7 +4356,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4349,7 +4376,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4363,7 +4390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4383,7 +4410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4397,7 +4424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4411,7 +4438,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4425,7 +4452,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4439,7 +4466,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4459,7 +4486,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4473,7 +4500,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4487,7 +4514,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4501,7 +4528,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4515,7 +4542,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4550,20 +4577,20 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4583,7 +4610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4603,7 +4630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4617,7 +4644,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4631,7 +4658,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4651,7 +4678,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4665,7 +4692,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4685,7 +4712,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4705,7 +4732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4719,7 +4746,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4739,7 +4766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4759,7 +4786,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4779,7 +4806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4793,7 +4820,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4807,7 +4834,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4821,7 +4848,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4841,7 +4868,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4861,7 +4888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4875,7 +4902,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4889,7 +4916,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4909,7 +4936,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4923,7 +4950,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4943,7 +4970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4957,7 +4984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4971,7 +4998,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -4985,7 +5012,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -4999,7 +5026,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -5013,7 +5040,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5033,7 +5060,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5047,7 +5074,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5067,7 +5094,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5081,7 +5108,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5095,7 +5122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5109,7 +5136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5123,7 +5150,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5143,7 +5170,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5163,7 +5190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5177,7 +5204,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5191,7 +5218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5211,7 +5238,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5225,7 +5252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5239,7 +5266,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5253,7 +5280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5273,7 +5300,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5287,7 +5314,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5301,7 +5328,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5315,7 +5342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5329,7 +5356,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5349,7 +5376,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5369,7 +5396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5383,7 +5410,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5397,7 +5424,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5411,7 +5438,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5431,7 +5458,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5445,7 +5472,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5474,20 +5501,20 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5507,7 +5534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5527,7 +5554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5541,7 +5568,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5555,7 +5582,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5575,7 +5602,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5589,7 +5616,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5603,7 +5630,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5617,7 +5644,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5631,7 +5658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5648,7 +5675,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5668,7 +5695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5682,7 +5709,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5696,7 +5723,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5710,7 +5737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5724,7 +5751,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5744,7 +5771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5758,7 +5785,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5772,7 +5799,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5786,7 +5813,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5800,7 +5827,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5814,7 +5841,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5834,7 +5861,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5854,7 +5881,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5868,7 +5895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5882,7 +5909,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5896,7 +5923,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5910,7 +5937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5930,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5944,7 +5971,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5958,7 +5985,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5972,7 +5999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -5986,7 +6013,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -6006,7 +6033,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -6020,7 +6047,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -6034,7 +6061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6048,7 +6075,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6062,7 +6089,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6082,7 +6109,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6096,7 +6123,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6110,7 +6137,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6124,7 +6151,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6144,7 +6171,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6158,7 +6185,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6172,7 +6199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6186,7 +6213,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6200,7 +6227,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6220,7 +6247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6234,7 +6261,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6248,7 +6275,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6262,7 +6289,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6282,7 +6309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6302,7 +6329,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6316,7 +6343,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6330,7 +6357,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6350,7 +6377,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6364,7 +6391,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6378,7 +6405,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6392,7 +6419,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6406,7 +6433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6420,7 +6447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6434,7 +6461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6451,7 +6478,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6462,7 +6489,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6482,7 +6509,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6502,7 +6529,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6516,7 +6543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6530,7 +6557,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6544,7 +6571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6564,7 +6591,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6578,7 +6605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6606,20 +6633,20 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:C50"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6639,7 +6666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6659,7 +6686,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6673,7 +6700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6687,7 +6714,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6701,7 +6728,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6721,7 +6748,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6735,7 +6762,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6749,7 +6776,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6763,7 +6790,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6777,7 +6804,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6797,7 +6824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6811,7 +6838,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6825,7 +6852,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6839,7 +6866,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6853,7 +6880,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6867,7 +6894,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6887,7 +6914,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6901,7 +6928,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6915,7 +6942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6929,7 +6956,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6943,7 +6970,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6963,7 +6990,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -6977,7 +7004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -6991,7 +7018,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -7005,7 +7032,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -7019,7 +7046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7039,7 +7066,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7053,7 +7080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7067,7 +7094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7081,7 +7108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7095,7 +7122,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7109,7 +7136,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7129,7 +7156,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7143,7 +7170,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7163,7 +7190,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7177,7 +7204,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7191,7 +7218,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7205,7 +7232,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7219,7 +7246,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7233,7 +7260,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7253,7 +7280,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7267,7 +7294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7281,7 +7308,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7295,7 +7322,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7309,7 +7336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7329,7 +7356,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7343,7 +7370,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7357,7 +7384,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7371,7 +7398,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7385,7 +7412,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7399,7 +7426,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7413,7 +7440,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7433,7 +7460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7447,7 +7474,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7461,7 +7488,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7481,7 +7508,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7495,7 +7522,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7509,7 +7536,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7523,7 +7550,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7537,7 +7564,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7557,7 +7584,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7571,7 +7598,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7585,7 +7612,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7599,7 +7626,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7613,7 +7640,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7627,7 +7654,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7647,7 +7674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7661,7 +7688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7675,7 +7702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7689,7 +7716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7709,7 +7736,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7723,7 +7750,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7737,7 +7764,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7757,7 +7784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7777,7 +7804,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7791,7 +7818,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7805,7 +7832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7830,23 +7857,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E40"/>
+    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="7" sqref="E2:E5 E8:E9 E14:E19 E21:E23 E26:E28 E31:E37 E39 E42:E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7866,7 +7893,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7886,7 +7913,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7900,7 +7927,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7914,7 +7941,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -7928,7 +7955,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -7942,7 +7969,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -7962,7 +7989,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -7976,7 +8003,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -7990,7 +8017,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -8010,7 +8037,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -8030,7 +8057,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8044,7 +8071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8058,7 +8085,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8072,7 +8099,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8086,7 +8113,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8100,7 +8127,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8120,7 +8147,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8134,7 +8161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8148,7 +8175,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8162,7 +8189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8182,7 +8209,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8196,7 +8223,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8210,7 +8237,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8224,7 +8251,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8244,7 +8271,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -8258,7 +8285,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -8272,7 +8299,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -8286,7 +8313,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -8300,7 +8327,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -8314,7 +8341,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -8328,7 +8355,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -8348,7 +8375,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>144</v>
       </c>
@@ -8360,6 +8387,110 @@
       </c>
       <c r="F40" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" t="s">
+        <v>400</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>408</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" t="s">
+        <v>283</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" t="s">
+        <v>226</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -8376,20 +8507,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8409,7 +8540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8430,7 +8561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8451,7 +8582,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8472,7 +8603,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8493,7 +8624,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -8514,42 +8645,42 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.68421052631578949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
@@ -8557,24 +8688,24 @@
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.71568627450980393</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73394495412844041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>12.5</v>
+        <v>12.666666666666666</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>2.3333333333333335</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>34</v>
+        <v>36.333333333333336</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
@@ -8582,7 +8713,7 @@
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.71568627450980404</v>
+        <v>0.73394495412844041</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10568" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{885BD607-39E5-4EDF-ABD1-409B8E9BB46A}"/>
+  <xr:revisionPtr revIDLastSave="10686" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF08749-CA81-4DD8-B557-21B62E74A1D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="424">
   <si>
     <t>ROUND</t>
   </si>
@@ -1243,9 +1243,6 @@
     <t>6-1 7-5</t>
   </si>
   <si>
-    <t>Mark Lajal</t>
-  </si>
-  <si>
     <t>7-6(3) 7-5 6-2</t>
   </si>
   <si>
@@ -1268,6 +1265,54 @@
   </si>
   <si>
     <t>Ugo Humbert (FRANCE)</t>
+  </si>
+  <si>
+    <t>Mark Lajal (ESTONIA)</t>
+  </si>
+  <si>
+    <t>4-6 7-6(5) 6-4</t>
+  </si>
+  <si>
+    <t>7-6(3) 7-6(2)</t>
+  </si>
+  <si>
+    <t>6-3 7-6(7)</t>
+  </si>
+  <si>
+    <t>6-1 7-6(3)</t>
+  </si>
+  <si>
+    <t>Hady Habib (LEBANON)</t>
+  </si>
+  <si>
+    <t>OLYMPICS</t>
+  </si>
+  <si>
+    <t>Li Tu (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-1 7-5 6-4</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>6-7(3) 6-1 RETIED</t>
+  </si>
+  <si>
+    <t>Tomáš Macháč (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Giovanni Mpetshi Perricard (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-7(6) 6-4 7-6(3)</t>
+  </si>
+  <si>
+    <t>Wu Yibing (CHINA)</t>
+  </si>
+  <si>
+    <t>7-6(5) 7-5</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1388,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1351,6 +1396,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1519,7 +1565,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1603,7 +1649,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2096,7 +2142,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.81818181818181823</c:v>
+                  <c:v>0.79591836734693877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3891,20 +3937,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3924,7 +3970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3944,7 +3990,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -3958,7 +4004,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -3978,7 +4024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -3992,7 +4038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -4006,7 +4052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -4041,20 +4087,20 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4074,7 +4120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4094,7 +4140,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4108,7 +4154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4128,7 +4174,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4142,7 +4188,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4156,7 +4202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4176,7 +4222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4190,7 +4236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4204,7 +4250,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4218,7 +4264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4232,7 +4278,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4246,7 +4292,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4260,7 +4306,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4280,7 +4326,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4294,7 +4340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4308,7 +4354,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4322,7 +4368,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4336,7 +4382,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4356,7 +4402,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4376,7 +4422,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4390,7 +4436,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4410,7 +4456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4424,7 +4470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4438,7 +4484,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4452,7 +4498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4466,7 +4512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4486,7 +4532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4500,7 +4546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4514,7 +4560,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4528,7 +4574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4542,7 +4588,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4576,21 +4622,21 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4610,7 +4656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4630,7 +4676,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4644,7 +4690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4658,7 +4704,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4678,7 +4724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4692,7 +4738,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4712,7 +4758,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4732,7 +4778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4746,7 +4792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4766,7 +4812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4786,7 +4832,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4806,7 +4852,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4820,7 +4866,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4834,7 +4880,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4848,7 +4894,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4868,7 +4914,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4888,7 +4934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4902,7 +4948,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4916,7 +4962,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4936,7 +4982,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4950,7 +4996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -4970,7 +5016,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -4984,7 +5030,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -4998,7 +5044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -5012,7 +5058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -5026,7 +5072,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -5040,7 +5086,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5060,7 +5106,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5074,7 +5120,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5094,7 +5140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5108,7 +5154,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5122,7 +5168,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5136,7 +5182,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5150,7 +5196,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5170,7 +5216,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5190,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5204,7 +5250,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5218,7 +5264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5238,7 +5284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5252,7 +5298,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5266,7 +5312,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5280,7 +5326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5300,7 +5346,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5314,7 +5360,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5328,7 +5374,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5342,7 +5388,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5356,7 +5402,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5376,7 +5422,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5396,7 +5442,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5410,7 +5456,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5424,7 +5470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5438,7 +5484,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5458,7 +5504,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5472,7 +5518,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5500,21 +5546,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5534,7 +5580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5554,7 +5600,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5568,7 +5614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5582,7 +5628,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5602,7 +5648,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5616,7 +5662,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5630,7 +5676,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5644,7 +5690,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5658,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5675,7 +5721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5695,7 +5741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5709,7 +5755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5723,7 +5769,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5737,7 +5783,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5751,7 +5797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5771,7 +5817,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5785,7 +5831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5799,7 +5845,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5813,7 +5859,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5827,7 +5873,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5841,7 +5887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5861,7 +5907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5881,7 +5927,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5895,7 +5941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5909,7 +5955,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5923,7 +5969,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5937,7 +5983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -5957,7 +6003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -5971,7 +6017,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -5985,7 +6031,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -5999,7 +6045,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -6013,7 +6059,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -6033,7 +6079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -6047,7 +6093,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -6061,7 +6107,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6075,7 +6121,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6089,7 +6135,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6109,7 +6155,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6123,7 +6169,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6137,7 +6183,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6151,7 +6197,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6171,7 +6217,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6185,7 +6231,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6199,7 +6245,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6213,7 +6259,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6227,7 +6273,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6247,7 +6293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6261,7 +6307,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6275,7 +6321,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6289,7 +6335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6309,7 +6355,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6329,7 +6375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6343,7 +6389,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6357,7 +6403,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6377,7 +6423,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6391,7 +6437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6405,7 +6451,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6419,7 +6465,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6433,7 +6479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6447,7 +6493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6461,7 +6507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6478,7 +6524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6489,7 +6535,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6509,7 +6555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6529,7 +6575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6543,7 +6589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6557,7 +6603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6571,7 +6617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6591,7 +6637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6605,7 +6651,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6632,21 +6678,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6666,7 +6712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6686,7 +6732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6700,7 +6746,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6714,7 +6760,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6728,7 +6774,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6748,7 +6794,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6762,7 +6808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6776,7 +6822,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6790,7 +6836,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6804,7 +6850,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6824,7 +6870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6838,7 +6884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6852,7 +6898,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6866,7 +6912,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6880,7 +6926,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6894,7 +6940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6914,7 +6960,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6928,7 +6974,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6942,7 +6988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -6956,7 +7002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -6970,7 +7016,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -6990,7 +7036,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -7004,7 +7050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -7018,7 +7064,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -7032,7 +7078,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -7046,7 +7092,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7066,7 +7112,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7080,7 +7126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7094,7 +7140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7108,7 +7154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7122,7 +7168,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7136,7 +7182,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7156,7 +7202,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7170,7 +7216,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7190,7 +7236,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7204,7 +7250,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7218,7 +7264,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7232,7 +7278,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7246,7 +7292,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7260,7 +7306,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7280,7 +7326,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7294,7 +7340,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7308,7 +7354,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7322,7 +7368,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7336,7 +7382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7356,7 +7402,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7370,7 +7416,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7384,7 +7430,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7398,7 +7444,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7412,7 +7458,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7426,7 +7472,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7440,7 +7486,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7460,7 +7506,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7474,7 +7520,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7488,7 +7534,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7508,7 +7554,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7522,7 +7568,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7536,7 +7582,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7550,7 +7596,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7564,7 +7610,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7584,7 +7630,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7598,7 +7644,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7612,7 +7658,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7626,7 +7672,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7640,7 +7686,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7654,7 +7700,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7674,7 +7720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7688,7 +7734,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7702,7 +7748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7716,7 +7762,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7736,12 +7782,12 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>142</v>
       </c>
       <c r="D86" t="s">
-        <v>251</v>
+        <v>312</v>
       </c>
       <c r="E86" s="4" t="s">
         <v>11</v>
@@ -7750,7 +7796,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7764,7 +7810,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7784,7 +7830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7804,7 +7850,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7818,7 +7864,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7832,7 +7878,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7857,23 +7903,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="7" sqref="E2:E5 E8:E9 E14:E19 E21:E23 E26:E28 E31:E37 E39 E42:E48"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E74" activeCellId="9" sqref="E6 E10 E12 E24 E29 E40 E55 E57 E60 E74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7893,7 +7939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7913,7 +7959,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7927,7 +7973,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7941,7 +7987,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -7955,7 +8001,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -7969,7 +8015,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -7989,7 +8035,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -8003,7 +8049,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -8017,7 +8063,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -8037,7 +8083,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -8057,7 +8103,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8071,7 +8117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8085,7 +8131,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8099,7 +8145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8113,7 +8159,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8127,7 +8173,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8147,7 +8193,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8161,7 +8207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8175,7 +8221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8189,7 +8235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8209,7 +8255,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8223,7 +8269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8237,7 +8283,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8251,7 +8297,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8271,7 +8317,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -8285,7 +8331,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -8299,7 +8345,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -8313,7 +8359,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -8327,7 +8373,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -8341,7 +8387,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -8355,7 +8401,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -8375,7 +8421,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>144</v>
       </c>
@@ -8389,7 +8435,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -8400,16 +8446,16 @@
         <v>198</v>
       </c>
       <c r="D42" t="s">
+        <v>408</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
         <v>400</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -8420,10 +8466,10 @@
         <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -8434,24 +8480,24 @@
         <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
       <c r="D45" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -8462,10 +8508,10 @@
         <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -8476,10 +8522,10 @@
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>164</v>
       </c>
@@ -8490,7 +8536,322 @@
         <v>11</v>
       </c>
       <c r="F48" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B50" t="s">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+      <c r="D50" t="s">
+        <v>413</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="C52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" t="s">
+        <v>364</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s">
+        <v>283</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
+        <v>247</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" t="s">
+        <v>273</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>244</v>
+      </c>
+      <c r="B57" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" t="s">
+        <v>265</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>415</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s">
+        <v>419</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>407</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B65" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" t="s">
+        <v>142</v>
+      </c>
+      <c r="D65" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>144</v>
+      </c>
+      <c r="D66" t="s">
+        <v>202</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>275</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" t="s">
+        <v>226</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>164</v>
+      </c>
+      <c r="D69" t="s">
+        <v>147</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" t="s">
+        <v>370</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C73" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" t="s">
+        <v>265</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" t="s">
+        <v>419</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -8507,20 +8868,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8540,7 +8901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8561,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8582,7 +8943,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8603,7 +8964,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8624,7 +8985,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -8645,75 +9006,75 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.79591836734693877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.73394495412844041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.7350427350427351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>12.666666666666666</v>
+        <v>13.666666666666666</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
-        <v>2.5</v>
+        <v>2.6666666666666665</v>
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>36.333333333333336</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>9.6666666666666661</v>
+        <v>10.333333333333334</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.73394495412844041</v>
+        <v>0.73504273504273498</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10686" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADF08749-CA81-4DD8-B557-21B62E74A1D3}"/>
+  <xr:revisionPtr revIDLastSave="10698" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACFB4F5-E665-4B58-8087-BA4E35D8EAA4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="425">
   <si>
     <t>ROUND</t>
   </si>
@@ -1313,6 +1313,9 @@
   </si>
   <si>
     <t>7-6(5) 7-5</t>
+  </si>
+  <si>
+    <t>6-1 3-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1568,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,7 +1652,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2142,7 +2145,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.79591836734693877</c:v>
+                  <c:v>0.78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3940,17 +3943,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3990,7 +3993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4024,7 +4027,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -4052,7 +4055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -4090,17 +4093,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4120,7 +4123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4154,7 +4157,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4202,7 +4205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4222,7 +4225,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4236,7 +4239,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4250,7 +4253,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4278,7 +4281,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4306,7 +4309,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4326,7 +4329,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4340,7 +4343,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4354,7 +4357,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4402,7 +4405,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4436,7 +4439,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4456,7 +4459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4470,7 +4473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4498,7 +4501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4532,7 +4535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4560,7 +4563,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4588,7 +4591,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4626,17 +4629,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4676,7 +4679,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4690,7 +4693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4724,7 +4727,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4738,7 +4741,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4758,7 +4761,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4778,7 +4781,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4792,7 +4795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4832,7 +4835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4852,7 +4855,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4866,7 +4869,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4880,7 +4883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4894,7 +4897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4914,7 +4917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4962,7 +4965,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4982,7 +4985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5016,7 +5019,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -5030,7 +5033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -5044,7 +5047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5120,7 +5123,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5140,7 +5143,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5154,7 +5157,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5168,7 +5171,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5236,7 +5239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5250,7 +5253,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5284,7 +5287,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5312,7 +5315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5326,7 +5329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5346,7 +5349,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5374,7 +5377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5388,7 +5391,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5442,7 +5445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5456,7 +5459,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5470,7 +5473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5518,7 +5521,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5550,17 +5553,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5580,7 +5583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5600,7 +5603,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5614,7 +5617,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5628,7 +5631,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5648,7 +5651,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5662,7 +5665,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5690,7 +5693,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5741,7 +5744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5783,7 +5786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5845,7 +5848,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5859,7 +5862,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5887,7 +5890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5927,7 +5930,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5941,7 +5944,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5955,7 +5958,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5983,7 +5986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -6017,7 +6020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -6031,7 +6034,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -6045,7 +6048,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -6059,7 +6062,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -6079,7 +6082,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -6093,7 +6096,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6121,7 +6124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6135,7 +6138,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6169,7 +6172,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6183,7 +6186,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6217,7 +6220,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6259,7 +6262,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6273,7 +6276,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6293,7 +6296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6335,7 +6338,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6355,7 +6358,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6375,7 +6378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6403,7 +6406,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6423,7 +6426,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6451,7 +6454,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6465,7 +6468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6479,7 +6482,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6493,7 +6496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6524,7 +6527,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6535,7 +6538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6555,7 +6558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6575,7 +6578,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6589,7 +6592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6603,7 +6606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6617,7 +6620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6637,7 +6640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6682,17 +6685,17 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6712,7 +6715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6732,7 +6735,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6760,7 +6763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6774,7 +6777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6794,7 +6797,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6808,7 +6811,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6822,7 +6825,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6836,7 +6839,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6870,7 +6873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6898,7 +6901,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6912,7 +6915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6926,7 +6929,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6940,7 +6943,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6960,7 +6963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6974,7 +6977,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6988,7 +6991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -7002,7 +7005,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -7016,7 +7019,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -7078,7 +7081,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7112,7 +7115,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7126,7 +7129,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7140,7 +7143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7182,7 +7185,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7216,7 +7219,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7236,7 +7239,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7250,7 +7253,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7264,7 +7267,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7278,7 +7281,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7292,7 +7295,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7306,7 +7309,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7326,7 +7329,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7340,7 +7343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7354,7 +7357,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7368,7 +7371,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7382,7 +7385,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7416,7 +7419,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7430,7 +7433,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7486,7 +7489,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7554,7 +7557,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7568,7 +7571,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7582,7 +7585,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7630,7 +7633,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7644,7 +7647,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7658,7 +7661,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7672,7 +7675,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7686,7 +7689,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7734,7 +7737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7748,7 +7751,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7782,7 +7785,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7810,7 +7813,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7850,7 +7853,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7864,7 +7867,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7878,7 +7881,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7903,23 +7906,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" activeCellId="9" sqref="E6 E10 E12 E24 E29 E40 E55 E57 E60 E74"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7939,7 +7942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7973,7 +7976,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7987,7 +7990,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -8001,7 +8004,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -8035,7 +8038,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -8063,7 +8066,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -8083,7 +8086,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -8103,7 +8106,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8117,7 +8120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8131,7 +8134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8145,7 +8148,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8159,7 +8162,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8173,7 +8176,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8193,7 +8196,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8207,7 +8210,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8221,7 +8224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8235,7 +8238,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8255,7 +8258,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8269,7 +8272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8283,7 +8286,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8297,7 +8300,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8317,7 +8320,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -8331,7 +8334,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -8345,7 +8348,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -8359,7 +8362,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -8387,7 +8390,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -8421,7 +8424,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>144</v>
       </c>
@@ -8435,7 +8438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -8455,7 +8458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -8469,7 +8472,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -8483,7 +8486,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -8497,7 +8500,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -8525,7 +8528,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>164</v>
       </c>
@@ -8539,7 +8542,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>414</v>
       </c>
@@ -8559,7 +8562,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
       <c r="C51" t="s">
         <v>142</v>
@@ -8574,7 +8577,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
       <c r="C52" t="s">
         <v>144</v>
@@ -8589,7 +8592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
       <c r="C53" t="s">
         <v>162</v>
@@ -8604,7 +8607,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
       <c r="C54" t="s">
         <v>163</v>
@@ -8619,7 +8622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
       <c r="C55" t="s">
         <v>164</v>
@@ -8634,7 +8637,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -8674,7 +8677,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -8688,7 +8691,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>407</v>
       </c>
@@ -8716,7 +8719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -8736,7 +8739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -8750,7 +8753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>163</v>
       </c>
@@ -8778,7 +8781,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>164</v>
       </c>
@@ -8792,7 +8795,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>359</v>
       </c>
@@ -8812,7 +8815,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C72" t="s">
         <v>142</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>144</v>
       </c>
@@ -8840,7 +8843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>162</v>
       </c>
@@ -8852,6 +8855,40 @@
       </c>
       <c r="F74" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" t="s">
+        <v>302</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>407</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -8871,17 +8908,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8901,7 +8938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8922,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8943,7 +8980,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8964,7 +9001,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -8985,7 +9022,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -9006,34 +9043,34 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.79591836734693877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -9041,24 +9078,24 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.7350427350427351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.73191489361702122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>13.666666666666666</v>
+        <v>13.833333333333334</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -9066,15 +9103,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>39</v>
+        <v>39.166666666666664</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>10.333333333333334</v>
+        <v>10.5</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.73504273504273498</v>
+        <v>0.73191489361702122</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10698" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ACFB4F5-E665-4B58-8087-BA4E35D8EAA4}"/>
+  <xr:revisionPtr revIDLastSave="10716" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EC4D8B-B9B7-4DDD-9A09-EDDC3F50836E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="426">
   <si>
     <t>ROUND</t>
   </si>
@@ -1316,6 +1316,9 @@
   </si>
   <si>
     <t>6-1 3-6 7-5</t>
+  </si>
+  <si>
+    <t>6-3 7-6(8)</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1571,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,7 +1655,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2145,7 +2148,7 @@
                   <c:v>0.81538461538461537</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.78</c:v>
+                  <c:v>0.76470588235294112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3548,7 +3551,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{71DB6E61-E45D-46BE-B957-8E69693332BF}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3560,7 +3563,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA1731C9-E153-41CF-A12F-5288C10B72E7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3939,21 +3942,21 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -3973,7 +3976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -3993,7 +3996,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4007,7 +4010,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>143</v>
       </c>
@@ -4027,7 +4030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>142</v>
       </c>
@@ -4041,7 +4044,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -4089,21 +4092,21 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>144</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>156</v>
       </c>
@@ -4177,7 +4180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>157</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>142</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>161</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>157</v>
       </c>
@@ -4239,7 +4242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>142</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4267,7 +4270,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>162</v>
       </c>
@@ -4281,7 +4284,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>163</v>
       </c>
@@ -4295,7 +4298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>164</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>172</v>
       </c>
@@ -4329,7 +4332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>144</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>162</v>
       </c>
@@ -4357,7 +4360,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>163</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>164</v>
       </c>
@@ -4385,7 +4388,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>180</v>
       </c>
@@ -4425,7 +4428,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>144</v>
       </c>
@@ -4439,7 +4442,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>183</v>
       </c>
@@ -4459,7 +4462,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>144</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>162</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>163</v>
       </c>
@@ -4501,7 +4504,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>164</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>187</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>144</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>162</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>163</v>
       </c>
@@ -4577,7 +4580,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>164</v>
       </c>
@@ -4591,7 +4594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>190</v>
       </c>
@@ -4625,21 +4628,21 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>192</v>
       </c>
@@ -4679,7 +4682,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>142</v>
       </c>
@@ -4693,7 +4696,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>144</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>197</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>141</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -4761,7 +4764,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>294</v>
       </c>
@@ -4781,7 +4784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>144</v>
       </c>
@@ -4795,7 +4798,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>205</v>
       </c>
@@ -4835,7 +4838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>144</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>162</v>
       </c>
@@ -4883,7 +4886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>163</v>
       </c>
@@ -4897,7 +4900,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -4917,7 +4920,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -4937,7 +4940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>157</v>
       </c>
@@ -4951,7 +4954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -4965,7 +4968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>313</v>
       </c>
@@ -4985,7 +4988,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>142</v>
       </c>
@@ -4999,7 +5002,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>178</v>
       </c>
@@ -5019,7 +5022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>157</v>
       </c>
@@ -5033,7 +5036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>218</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>198</v>
       </c>
@@ -5061,7 +5064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>141</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>142</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>141</v>
       </c>
@@ -5123,7 +5126,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>144</v>
       </c>
@@ -5157,7 +5160,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>162</v>
       </c>
@@ -5171,7 +5174,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>163</v>
       </c>
@@ -5185,7 +5188,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>164</v>
       </c>
@@ -5199,7 +5202,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>232</v>
       </c>
@@ -5219,7 +5222,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>244</v>
       </c>
@@ -5239,7 +5242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>157</v>
       </c>
@@ -5253,7 +5256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>141</v>
       </c>
@@ -5267,7 +5270,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>245</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>144</v>
       </c>
@@ -5301,7 +5304,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>162</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>163</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -5363,7 +5366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>142</v>
       </c>
@@ -5377,7 +5380,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>144</v>
       </c>
@@ -5391,7 +5394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>162</v>
       </c>
@@ -5405,7 +5408,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>250</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>252</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -5459,7 +5462,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -5473,7 +5476,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>255</v>
       </c>
@@ -5507,7 +5510,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>142</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>144</v>
       </c>
@@ -5549,21 +5552,21 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -5603,7 +5606,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -5617,7 +5620,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>153</v>
       </c>
@@ -5651,7 +5654,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>144</v>
       </c>
@@ -5665,7 +5668,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>162</v>
       </c>
@@ -5679,7 +5682,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>163</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>164</v>
       </c>
@@ -5707,7 +5710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>254</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -5744,7 +5747,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -5758,7 +5761,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -5786,7 +5789,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -5800,7 +5803,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -5820,7 +5823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -5834,7 +5837,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -5848,7 +5851,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -5876,7 +5879,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>164</v>
       </c>
@@ -5890,7 +5893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>268</v>
       </c>
@@ -5910,7 +5913,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -5930,7 +5933,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>144</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>162</v>
       </c>
@@ -5958,7 +5961,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>163</v>
       </c>
@@ -5972,7 +5975,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>164</v>
       </c>
@@ -5986,7 +5989,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>313</v>
       </c>
@@ -6006,7 +6009,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>144</v>
       </c>
@@ -6020,7 +6023,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>162</v>
       </c>
@@ -6034,7 +6037,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>163</v>
       </c>
@@ -6048,7 +6051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>164</v>
       </c>
@@ -6062,7 +6065,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>178</v>
       </c>
@@ -6082,7 +6085,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>141</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>142</v>
       </c>
@@ -6110,7 +6113,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>144</v>
       </c>
@@ -6124,7 +6127,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>162</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>224</v>
       </c>
@@ -6158,7 +6161,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>141</v>
       </c>
@@ -6172,7 +6175,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>142</v>
       </c>
@@ -6186,7 +6189,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>277</v>
       </c>
@@ -6220,7 +6223,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>144</v>
       </c>
@@ -6234,7 +6237,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>162</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>163</v>
       </c>
@@ -6262,7 +6265,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>164</v>
       </c>
@@ -6276,7 +6279,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>227</v>
       </c>
@@ -6296,7 +6299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -6310,7 +6313,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -6324,7 +6327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -6338,7 +6341,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -6358,7 +6361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>244</v>
       </c>
@@ -6378,7 +6381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -6392,7 +6395,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>249</v>
       </c>
@@ -6426,7 +6429,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>141</v>
       </c>
@@ -6440,7 +6443,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>142</v>
       </c>
@@ -6454,7 +6457,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>144</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>162</v>
       </c>
@@ -6482,7 +6485,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>163</v>
       </c>
@@ -6496,7 +6499,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>164</v>
       </c>
@@ -6510,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>254</v>
       </c>
@@ -6527,7 +6530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>270</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>287</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>289</v>
       </c>
@@ -6578,7 +6581,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>144</v>
       </c>
@@ -6592,7 +6595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>162</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>163</v>
       </c>
@@ -6620,7 +6623,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
         <v>144</v>
       </c>
@@ -6654,7 +6657,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
         <v>162</v>
       </c>
@@ -6681,21 +6684,21 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6715,7 +6718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>297</v>
       </c>
@@ -6735,7 +6738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>162</v>
       </c>
@@ -6749,7 +6752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>163</v>
       </c>
@@ -6763,7 +6766,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>164</v>
       </c>
@@ -6777,7 +6780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>153</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>144</v>
       </c>
@@ -6811,7 +6814,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -6825,7 +6828,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -6839,7 +6842,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>164</v>
       </c>
@@ -6853,7 +6856,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>142</v>
       </c>
@@ -6887,7 +6890,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>144</v>
       </c>
@@ -6901,7 +6904,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>162</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>163</v>
       </c>
@@ -6929,7 +6932,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>164</v>
       </c>
@@ -6943,7 +6946,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>205</v>
       </c>
@@ -6963,7 +6966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>142</v>
       </c>
@@ -6977,7 +6980,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>144</v>
       </c>
@@ -6991,7 +6994,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>162</v>
       </c>
@@ -7005,7 +7008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>163</v>
       </c>
@@ -7019,7 +7022,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -7039,7 +7042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>144</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>162</v>
       </c>
@@ -7067,7 +7070,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>163</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>164</v>
       </c>
@@ -7095,7 +7098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>313</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -7143,7 +7146,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -7157,7 +7160,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -7171,7 +7174,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -7185,7 +7188,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>317</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>142</v>
       </c>
@@ -7219,7 +7222,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -7239,7 +7242,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -7253,7 +7256,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -7281,7 +7284,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -7295,7 +7298,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -7309,7 +7312,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>329</v>
       </c>
@@ -7329,7 +7332,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -7343,7 +7346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>162</v>
       </c>
@@ -7357,7 +7360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>163</v>
       </c>
@@ -7371,7 +7374,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>164</v>
       </c>
@@ -7385,7 +7388,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>224</v>
       </c>
@@ -7405,7 +7408,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>141</v>
       </c>
@@ -7419,7 +7422,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>142</v>
       </c>
@@ -7433,7 +7436,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>144</v>
       </c>
@@ -7447,7 +7450,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>162</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>163</v>
       </c>
@@ -7475,7 +7478,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>164</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -7509,7 +7512,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>144</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>162</v>
       </c>
@@ -7537,7 +7540,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>244</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>144</v>
       </c>
@@ -7571,7 +7574,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>162</v>
       </c>
@@ -7585,7 +7588,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>163</v>
       </c>
@@ -7599,7 +7602,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>164</v>
       </c>
@@ -7613,7 +7616,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>249</v>
       </c>
@@ -7633,7 +7636,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>141</v>
       </c>
@@ -7647,7 +7650,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>142</v>
       </c>
@@ -7661,7 +7664,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>144</v>
       </c>
@@ -7675,7 +7678,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>162</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>163</v>
       </c>
@@ -7703,7 +7706,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>356</v>
       </c>
@@ -7723,7 +7726,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>144</v>
       </c>
@@ -7737,7 +7740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>162</v>
       </c>
@@ -7751,7 +7754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>163</v>
       </c>
@@ -7765,7 +7768,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>359</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>142</v>
       </c>
@@ -7799,7 +7802,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>144</v>
       </c>
@@ -7813,7 +7816,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>255</v>
       </c>
@@ -7833,7 +7836,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>365</v>
       </c>
@@ -7853,7 +7856,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>366</v>
       </c>
@@ -7867,7 +7870,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>366</v>
       </c>
@@ -7881,7 +7884,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>163</v>
       </c>
@@ -7906,23 +7909,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7942,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>197</v>
       </c>
@@ -7962,7 +7965,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>141</v>
       </c>
@@ -7976,7 +7979,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>142</v>
       </c>
@@ -7990,7 +7993,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>144</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>162</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>297</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>162</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>163</v>
       </c>
@@ -8066,7 +8069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>153</v>
       </c>
@@ -8086,7 +8089,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>250</v>
       </c>
@@ -8106,7 +8109,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>142</v>
       </c>
@@ -8120,7 +8123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>144</v>
       </c>
@@ -8134,7 +8137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>162</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>163</v>
       </c>
@@ -8162,7 +8165,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>164</v>
       </c>
@@ -8176,7 +8179,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -8196,7 +8199,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>142</v>
       </c>
@@ -8210,7 +8213,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>144</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>162</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -8258,7 +8261,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>142</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>144</v>
       </c>
@@ -8286,7 +8289,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>162</v>
       </c>
@@ -8300,7 +8303,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>178</v>
       </c>
@@ -8320,7 +8323,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>141</v>
       </c>
@@ -8334,7 +8337,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>142</v>
       </c>
@@ -8348,7 +8351,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>144</v>
       </c>
@@ -8362,7 +8365,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>162</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>163</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>164</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>329</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>144</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>141</v>
       </c>
@@ -8472,7 +8475,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>142</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>144</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>162</v>
       </c>
@@ -8514,7 +8517,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>163</v>
       </c>
@@ -8528,7 +8531,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>164</v>
       </c>
@@ -8542,7 +8545,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>414</v>
       </c>
@@ -8562,7 +8565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
       <c r="C51" t="s">
         <v>142</v>
@@ -8577,7 +8580,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="C52" t="s">
         <v>144</v>
@@ -8592,7 +8595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
       <c r="C53" t="s">
         <v>162</v>
@@ -8607,7 +8610,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="7"/>
       <c r="C54" t="s">
         <v>163</v>
@@ -8622,7 +8625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="7"/>
       <c r="C55" t="s">
         <v>164</v>
@@ -8637,7 +8640,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>244</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>249</v>
       </c>
@@ -8677,7 +8680,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>141</v>
       </c>
@@ -8691,7 +8694,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -8708,7 +8711,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>407</v>
       </c>
@@ -8719,7 +8722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>356</v>
       </c>
@@ -8739,7 +8742,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>144</v>
       </c>
@@ -8753,7 +8756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>162</v>
       </c>
@@ -8767,7 +8770,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>163</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>164</v>
       </c>
@@ -8795,7 +8798,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>359</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>142</v>
       </c>
@@ -8829,7 +8832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>144</v>
       </c>
@@ -8843,7 +8846,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>162</v>
       </c>
@@ -8857,7 +8860,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>255</v>
       </c>
@@ -8877,7 +8880,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>144</v>
       </c>
@@ -8889,6 +8892,54 @@
       </c>
       <c r="F77" t="s">
         <v>424</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>365</v>
+      </c>
+      <c r="B79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" t="s">
+        <v>366</v>
+      </c>
+      <c r="D79" t="s">
+        <v>203</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>366</v>
+      </c>
+      <c r="D80" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>366</v>
+      </c>
+      <c r="D81" t="s">
+        <v>367</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -8905,20 +8956,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -8938,7 +8989,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2019</v>
       </c>
@@ -8959,7 +9010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
@@ -8980,7 +9031,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -9001,7 +9052,7 @@
         <v>0.45714285714285713</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -9022,7 +9073,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -9043,34 +9094,34 @@
         <v>0.81538461538461537</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2024</v>
       </c>
       <c r="B7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="0"/>
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.76470588235294112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
         <f>SUM(B2:B7)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2">
         <f>SUM(C2:C7)</f>
@@ -9078,24 +9129,24 @@
       </c>
       <c r="D8" s="2">
         <f>SUM(D2:D7)</f>
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E8" s="2">
         <f>SUM(E2:E7)</f>
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F8" s="6">
         <f>(D8-E8)/D8</f>
-        <v>0.73191489361702122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="2">
         <f>AVERAGE(B2:B7)</f>
-        <v>13.833333333333334</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2">
         <f>AVERAGE(C2:C7)</f>
@@ -9103,15 +9154,15 @@
       </c>
       <c r="D9" s="2">
         <f>AVERAGE(D2:D7)</f>
-        <v>39.166666666666664</v>
+        <v>39.333333333333336</v>
       </c>
       <c r="E9" s="2">
         <f>AVERAGE(E2:E7)</f>
-        <v>10.5</v>
+        <v>10.666666666666666</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.73191489361702122</v>
+        <v>0.72881355932203395</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10716" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4EC4D8B-B9B7-4DDD-9A09-EDDC3F50836E}"/>
+  <xr:revisionPtr revIDLastSave="10800" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7798199-FE37-4FC4-9D1A-2462E6218204}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -19,9 +19,8 @@
     <sheet name="2022" sheetId="33" r:id="rId4"/>
     <sheet name="2023" sheetId="40" r:id="rId5"/>
     <sheet name="2024" sheetId="43" r:id="rId6"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId7"/>
-    <sheet name="Wins-Losses" sheetId="44" r:id="rId8"/>
-    <sheet name="Winning Percentile Range" sheetId="45" r:id="rId9"/>
+    <sheet name="2025" sheetId="46" r:id="rId7"/>
+    <sheet name="Stats" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="440">
   <si>
     <t>ROUND</t>
   </si>
@@ -1319,6 +1318,48 @@
   </si>
   <si>
     <t>6-3 7-6(8)</t>
+  </si>
+  <si>
+    <t>Alexander Shevchenko (RUSSIA)</t>
+  </si>
+  <si>
+    <t>6-1 7-5 6-1</t>
+  </si>
+  <si>
+    <t>6-0 6-1 6-4</t>
+  </si>
+  <si>
+    <t>6-2 6-4 6-7(3) 6-2</t>
+  </si>
+  <si>
+    <t>7-5 6-1 RETIRED</t>
+  </si>
+  <si>
+    <t>4-6 6-4 6-3 6-4</t>
+  </si>
+  <si>
+    <t>ROTTERDAM OPEN</t>
+  </si>
+  <si>
+    <t>7-6(3) 3-6 6-1</t>
+  </si>
+  <si>
+    <t>6-4 6-7(5) 6-3</t>
+  </si>
+  <si>
+    <t>6-4 3-6 6-2</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Luca Nardi (ITALY)</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-3</t>
+  </si>
+  <si>
+    <t>6-3 3-6 6-4</t>
   </si>
 </sst>
 </file>
@@ -1503,7 +1544,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$D$1</c:f>
+              <c:f>Stats!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1524,10 +1565,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1546,15 +1587,18 @@
                 <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$7</c:f>
+              <c:f>Stats!$D$2:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1573,12 +1617,15 @@
                 <c:pt idx="5">
                   <c:v>51</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C315-4F29-94A2-19566AEE7946}"/>
+              <c16:uniqueId val="{00000000-15A3-4561-A0FF-264D916171AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1587,7 +1634,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$E$1</c:f>
+              <c:f>Stats!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1608,10 +1655,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -1630,15 +1677,18 @@
                 <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$7</c:f>
+              <c:f>Stats!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -1657,12 +1707,15 @@
                 <c:pt idx="5">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C315-4F29-94A2-19566AEE7946}"/>
+              <c16:uniqueId val="{00000001-15A3-4561-A0FF-264D916171AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1676,11 +1729,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1106315327"/>
-        <c:axId val="526912015"/>
+        <c:axId val="1126767616"/>
+        <c:axId val="1126772416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1106315327"/>
+        <c:axId val="1126767616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1778,7 +1831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526912015"/>
+        <c:crossAx val="1126772416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1786,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="526912015"/>
+        <c:axId val="1126772416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1915,7 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1892,7 +1945,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1106315327"/>
+        <c:crossAx val="1126767616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,6 +2017,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -2002,11 +2060,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Carlos Alcaraz (SPAIN):</a:t>
+              <a:t>Carlos Alcaraz</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Wins-Losses</a:t>
+              <a:t> (SPAIN): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2052,7 +2110,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'YTD Stats'!$F$1</c:f>
+              <c:f>Stats!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2101,10 +2159,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$7</c:f>
+              <c:f>Stats!$A$2:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2019</c:v>
                 </c:pt>
@@ -2123,15 +2181,18 @@
                 <c:pt idx="5">
                   <c:v>2024</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>2025</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$7</c:f>
+              <c:f>Stats!$F$2:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2150,13 +2211,16 @@
                 <c:pt idx="5">
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-98F0-45BF-A6C2-6FD9CE967CB2}"/>
+              <c16:uniqueId val="{00000000-AE14-4520-82FC-3F7643513FE7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2170,11 +2234,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="527230207"/>
-        <c:axId val="960813583"/>
+        <c:axId val="1124058016"/>
+        <c:axId val="1124066176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="527230207"/>
+        <c:axId val="1124058016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2336,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="960813583"/>
+        <c:crossAx val="1124066176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2280,7 +2344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="960813583"/>
+        <c:axId val="1124066176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2450,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527230207"/>
+        <c:crossAx val="1124058016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2458,6 +2522,11 @@
       <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -3547,46 +3616,31 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{71DB6E61-E45D-46BE-B957-8E69693332BF}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</chartsheet>
-</file>
-
-<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AA1731C9-E153-41CF-A12F-5288C10B72E7}">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08DFAAC2-0F7D-C151-9BD7-52ED789F13C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6A8FA5B-8BC0-9934-47BE-3210BB01FE5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3599,27 +3653,30 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{641177BB-968A-375A-FEEB-4D5CE89BBFCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F17CB70A-7328-F397-0BCD-D6C0D9246AE2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3627,12 +3684,12 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:absoluteAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3942,8 +3999,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4092,8 +4149,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4628,8 +4685,8 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,8 +5609,8 @@
   </sheetPr>
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6684,8 +6741,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7911,8 +7968,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8949,14 +9006,261 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24BAE7B-9233-44D8-9BC3-5168B33C7E27}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" activeCellId="2" sqref="E2:E5 E8:E12 E14:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D12" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>436</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>437</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>439</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9006,7 +9310,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:F7" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F8" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -9116,57 +9420,78 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <f>SUM(B2:B7)</f>
-        <v>84</v>
-      </c>
-      <c r="C8" s="2">
-        <f>SUM(C2:C7)</f>
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <f>SUM(D2:D7)</f>
-        <v>236</v>
-      </c>
-      <c r="E8" s="2">
-        <f>SUM(E2:E7)</f>
-        <v>64</v>
-      </c>
-      <c r="F8" s="6">
-        <f>(D8-E8)/D8</f>
-        <v>0.72881355932203384</v>
+      <c r="A8">
+        <v>2025</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.81818181818181823</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <f>AVERAGE(B2:B7)</f>
-        <v>14</v>
+        <f>SUM(B2:B8)</f>
+        <v>87</v>
       </c>
       <c r="C9" s="2">
-        <f>AVERAGE(C2:C7)</f>
-        <v>2.6666666666666665</v>
+        <f>SUM(C2:C8)</f>
+        <v>17</v>
       </c>
       <c r="D9" s="2">
-        <f>AVERAGE(D2:D7)</f>
-        <v>39.333333333333336</v>
+        <f>SUM(D2:D8)</f>
+        <v>247</v>
       </c>
       <c r="E9" s="2">
-        <f>AVERAGE(E2:E7)</f>
-        <v>10.666666666666666</v>
+        <f>SUM(E2:E8)</f>
+        <v>66</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.72881355932203395</v>
+        <v>0.73279352226720651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2">
+        <f>AVERAGE(B2:B8)</f>
+        <v>12.428571428571429</v>
+      </c>
+      <c r="C10" s="2">
+        <f>AVERAGE(C2:C8)</f>
+        <v>2.4285714285714284</v>
+      </c>
+      <c r="D10" s="2">
+        <f>AVERAGE(D2:D8)</f>
+        <v>35.285714285714285</v>
+      </c>
+      <c r="E10" s="2">
+        <f>AVERAGE(E2:E8)</f>
+        <v>9.4285714285714288</v>
+      </c>
+      <c r="F10" s="6">
+        <f>(D10-E10)/D10</f>
+        <v>0.7327935222672064</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F7">
+  <conditionalFormatting sqref="F2:F8">
     <cfRule type="iconSet" priority="43">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -9177,5 +9502,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10800" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7798199-FE37-4FC4-9D1A-2462E6218204}"/>
+  <xr:revisionPtr revIDLastSave="10870" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4572D9F5-5230-40A3-9429-AEF8B2DEF27F}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="3810" windowWidth="28800" windowHeight="15285" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="452">
   <si>
     <t>ROUND</t>
   </si>
@@ -1360,6 +1360,42 @@
   </si>
   <si>
     <t>6-3 3-6 6-4</t>
+  </si>
+  <si>
+    <t>Quentin Halys (FRANCE)</t>
+  </si>
+  <si>
+    <t>6-1 0-6 6-4</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-3</t>
+  </si>
+  <si>
+    <t>MONTE CARLOS MASTERS</t>
+  </si>
+  <si>
+    <t>Arthur Fils (FRANCE)</t>
+  </si>
+  <si>
+    <t>3-6 6-0 6-1</t>
+  </si>
+  <si>
+    <t>4-6 7-5 6-3</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-0</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>Ethan Quinn (USA)</t>
+  </si>
+  <si>
+    <t>6-2 7-6(6)</t>
+  </si>
+  <si>
+    <t>7-6(6) 6-2</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1654,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1744,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,7 +2248,7 @@
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81818181818181823</c:v>
+                  <c:v>0.79166666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6741,8 +6777,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9010,15 +9046,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" activeCellId="2" sqref="E2:E5 E8:E12 E14:E15"/>
+      <selection activeCell="E36" activeCellId="4" sqref="E6 E16 E22 E24 E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
@@ -9244,6 +9280,254 @@
       </c>
       <c r="F16" t="s">
         <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>250</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" t="s">
+        <v>398</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>205</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>443</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" t="s">
+        <v>310</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" t="s">
+        <v>449</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="D35" t="s">
+        <v>444</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -9260,7 +9544,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9424,20 +9708,20 @@
         <v>2025</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.81818181818181823</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9446,23 +9730,23 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.73279352226720651</v>
+        <v>0.73461538461538467</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9471,23 +9755,23 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>12.428571428571429</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>2.4285714285714284</v>
+        <v>2.5714285714285716</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>35.285714285714285</v>
+        <v>37.142857142857146</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>9.4285714285714288</v>
+        <v>9.8571428571428577</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.7327935222672064</v>
+        <v>0.73461538461538467</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10870" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4572D9F5-5230-40A3-9429-AEF8B2DEF27F}"/>
+  <xr:revisionPtr revIDLastSave="10971" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBF4BD8-45EF-4CC8-88BD-C1E958C751AE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="471">
   <si>
     <t>ROUND</t>
   </si>
@@ -1396,6 +1396,63 @@
   </si>
   <si>
     <t>7-6(6) 6-2</t>
+  </si>
+  <si>
+    <t>6-3 3-6 7-5</t>
+  </si>
+  <si>
+    <t>6-3 6-4 6-2</t>
+  </si>
+  <si>
+    <t>6-1 4-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>6-1 6-3 4-6 6-4</t>
+  </si>
+  <si>
+    <t>7-6(8) 6-3 4-6 6-4</t>
+  </si>
+  <si>
+    <t>4-6 7-6(3) 6-0 2-0 RETIRED</t>
+  </si>
+  <si>
+    <t>4-6 6-7(4) 6-4 7-6(3) 7-6(10-2)</t>
+  </si>
+  <si>
+    <t>Adam Walton (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(4)</t>
+  </si>
+  <si>
+    <t>6-4 6-7(7) 7-5</t>
+  </si>
+  <si>
+    <t>7-5 6-7(5) 6-2</t>
+  </si>
+  <si>
+    <t>QUEENS CLUB CHAMPIONSHIPS</t>
+  </si>
+  <si>
+    <t>7-5 6-7(5) 7-5 2-6 6-1</t>
+  </si>
+  <si>
+    <t>Oliver Tarvet (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-1 3-6 6-3 6-4</t>
+  </si>
+  <si>
+    <t>6-7(5) 6-3 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-4 6-4 6-4 6-4</t>
+  </si>
+  <si>
+    <t>6-4 5-7 6-3 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-2 6-3 6-3</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1711,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1744,7 +1801,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2248,7 +2305,7 @@
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79166666666666663</c:v>
+                  <c:v>0.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,10 +3786,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -6778,7 +6831,7 @@
   <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8004,8 +8057,8 @@
   </sheetPr>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9046,20 +9099,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" activeCellId="4" sqref="E6 E16 E22 E24 E36"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E65" activeCellId="5" sqref="E6 E16 E22 E24 E36 E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -9474,7 +9527,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>144</v>
       </c>
@@ -9488,7 +9541,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>162</v>
       </c>
@@ -9502,7 +9555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>163</v>
       </c>
@@ -9516,7 +9569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>164</v>
       </c>
@@ -9528,6 +9581,380 @@
       </c>
       <c r="F36" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>317</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" t="s">
+        <v>259</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+      <c r="D40" t="s">
+        <v>275</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>164</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F43" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" t="s">
+        <v>281</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s">
+        <v>318</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>339</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>463</v>
+      </c>
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" t="s">
+        <v>459</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" t="s">
+        <v>211</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D55" t="s">
+        <v>235</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" t="s">
+        <v>264</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>164</v>
+      </c>
+      <c r="D57" t="s">
+        <v>330</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>224</v>
+      </c>
+      <c r="B59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" t="s">
+        <v>261</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" t="s">
+        <v>465</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="D61" t="s">
+        <v>223</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" t="s">
+        <v>367</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>162</v>
+      </c>
+      <c r="D63" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>163</v>
+      </c>
+      <c r="D64" t="s">
+        <v>308</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>164</v>
+      </c>
+      <c r="D65" t="s">
+        <v>147</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -9708,20 +10135,20 @@
         <v>2025</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.79166666666666663</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9730,23 +10157,23 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>260</v>
+        <v>284</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.73461538461538467</v>
+        <v>0.75352112676056338</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,23 +10182,23 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13</v>
+        <v>13.571428571428571</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>2.5714285714285716</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>37.142857142857146</v>
+        <v>40.571428571428569</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
-        <v>9.8571428571428577</v>
+        <v>10</v>
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.73461538461538467</v>
+        <v>0.75352112676056338</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/ATP Tour/Carlos Alcaraz.xlsx
+++ b/Tennis/ATP Tour/Carlos Alcaraz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/ATP Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10971" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFBF4BD8-45EF-4CC8-88BD-C1E958C751AE}"/>
+  <xr:revisionPtr revIDLastSave="11020" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1BF7BFE-F5CF-4611-87AC-2BD120148FE3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15345" activeTab="7" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="6" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="26" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1717" uniqueCount="485">
   <si>
     <t>ROUND</t>
   </si>
@@ -1453,6 +1453,48 @@
   </si>
   <si>
     <t>6-2 6-3 6-3</t>
+  </si>
+  <si>
+    <t>Hamad Medjedovic (SERBIA)</t>
+  </si>
+  <si>
+    <t>6-1 2-6 6-3</t>
+  </si>
+  <si>
+    <t>6-1 6-4</t>
+  </si>
+  <si>
+    <t>6-3 4-6 7-5</t>
+  </si>
+  <si>
+    <t>5-0 RETIRED</t>
+  </si>
+  <si>
+    <t>Reilly Opelka (USA)</t>
+  </si>
+  <si>
+    <t>6-4 7-5 6-4</t>
+  </si>
+  <si>
+    <t>6-1 6-0 6-3</t>
+  </si>
+  <si>
+    <t>6-2 6-4 6-0</t>
+  </si>
+  <si>
+    <t>7-6(3) 6-3 6-4</t>
+  </si>
+  <si>
+    <t>6-4 7-6(4) 6-2</t>
+  </si>
+  <si>
+    <t>Luciano Darderi (ITALY)</t>
+  </si>
+  <si>
+    <t>Mattia Bellucci (ITALY)</t>
+  </si>
+  <si>
+    <t>6-2 3-6 6-1 6-4</t>
   </si>
 </sst>
 </file>
@@ -1711,7 +1753,7 @@
                   <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,7 +2347,7 @@
                   <c:v>0.76470588235294112</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.875</c:v>
+                  <c:v>0.90163934426229508</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3786,6 +3828,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -4774,7 +4820,7 @@
   </sheetPr>
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -6830,8 +6876,8 @@
   </sheetPr>
   <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8058,7 +8104,7 @@
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B42"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9099,10 +9145,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E65" activeCellId="5" sqref="E6 E16 E22 E24 E36 E65"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9943,7 +9989,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>164</v>
       </c>
@@ -9955,6 +10001,200 @@
       </c>
       <c r="F65" t="s">
         <v>468</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="s">
+        <v>141</v>
+      </c>
+      <c r="D67" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C69" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" t="s">
+        <v>437</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C70" t="s">
+        <v>162</v>
+      </c>
+      <c r="D70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C71" t="s">
+        <v>163</v>
+      </c>
+      <c r="D71" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>249</v>
+      </c>
+      <c r="B74" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" t="s">
+        <v>476</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" t="s">
+        <v>483</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>142</v>
+      </c>
+      <c r="D76" t="s">
+        <v>482</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>144</v>
+      </c>
+      <c r="D77" t="s">
+        <v>235</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" t="s">
+        <v>273</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>164</v>
+      </c>
+      <c r="D80" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
@@ -9970,8 +10210,8 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10135,20 +10375,20 @@
         <v>2025</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E8">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>0.90163934426229508</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -10157,15 +10397,15 @@
       </c>
       <c r="B9" s="2">
         <f>SUM(B2:B8)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" s="2">
         <f>SUM(C2:C8)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <f>SUM(D2:D8)</f>
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E2:E8)</f>
@@ -10173,7 +10413,7 @@
       </c>
       <c r="F9" s="6">
         <f>(D9-E9)/D9</f>
-        <v>0.75352112676056338</v>
+        <v>0.76430976430976427</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -10182,15 +10422,15 @@
       </c>
       <c r="B10" s="2">
         <f>AVERAGE(B2:B8)</f>
-        <v>13.571428571428571</v>
+        <v>13.857142857142858</v>
       </c>
       <c r="C10" s="2">
         <f>AVERAGE(C2:C8)</f>
-        <v>3</v>
+        <v>3.2857142857142856</v>
       </c>
       <c r="D10" s="2">
         <f>AVERAGE(D2:D8)</f>
-        <v>40.571428571428569</v>
+        <v>42.428571428571431</v>
       </c>
       <c r="E10" s="2">
         <f>AVERAGE(E2:E8)</f>
@@ -10198,7 +10438,7 @@
       </c>
       <c r="F10" s="6">
         <f>(D10-E10)/D10</f>
-        <v>0.75352112676056338</v>
+        <v>0.76430976430976427</v>
       </c>
     </row>
   </sheetData>
